--- a/cht_app/forms/app/padr.xlsx
+++ b/cht_app/forms/app/padr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="501">
   <si>
     <t>type</t>
   </si>
@@ -310,7 +310,7 @@
     <t>County</t>
   </si>
   <si>
-    <t>minimal</t>
+    <t>autocomplete</t>
   </si>
   <si>
     <t>select_one type</t>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>stop_date_multiple</t>
+  </si>
+  <si>
+    <t>. &lt;= today() and (${start_date_multiple} = '' or . &gt;= ${start_date_multiple})</t>
   </si>
   <si>
     <t>expiry_date_multiple</t>
@@ -6458,11 +6461,11 @@
         <v>158</v>
       </c>
       <c r="L79" s="22"/>
-      <c r="M79" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="N79" s="35" t="s">
-        <v>124</v>
+      <c r="M79" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="N79" s="44" t="s">
+        <v>149</v>
       </c>
       <c r="O79" s="27"/>
       <c r="P79" s="27"/>
@@ -6518,11 +6521,11 @@
         <v>158</v>
       </c>
       <c r="L80" s="22"/>
-      <c r="M80" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="N80" s="35" t="s">
-        <v>124</v>
+      <c r="M80" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="N80" s="44" t="s">
+        <v>153</v>
       </c>
       <c r="O80" s="27"/>
       <c r="P80" s="27"/>
@@ -6560,7 +6563,7 @@
         <v>120</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C81" s="24" t="s">
         <v>155</v>
@@ -6615,7 +6618,7 @@
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B82" s="40" t="s">
         <v>162</v>
@@ -6814,10 +6817,10 @@
         <v>34</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D86" s="27"/>
       <c r="E86" s="27"/>
@@ -6866,7 +6869,7 @@
         <v>34</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C87" s="21" t="s">
         <v>36</v>
@@ -6917,13 +6920,13 @@
     </row>
     <row r="88" ht="18.75" customHeight="1">
       <c r="A88" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D88" s="27"/>
       <c r="E88" s="27"/>
@@ -6974,10 +6977,10 @@
         <v>125</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C89" s="45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
@@ -7026,10 +7029,10 @@
         <v>134</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D90" s="27"/>
       <c r="E90" s="27"/>
@@ -7041,7 +7044,7 @@
         <v>86</v>
       </c>
       <c r="K90" s="34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L90" s="22"/>
       <c r="M90" s="29" t="s">
@@ -7083,13 +7086,13 @@
     </row>
     <row r="91" ht="18.75" customHeight="1">
       <c r="A91" s="20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C91" s="45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D91" s="27"/>
       <c r="E91" s="27"/>
@@ -7101,7 +7104,7 @@
         <v>86</v>
       </c>
       <c r="K91" s="29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L91" s="36"/>
       <c r="M91" s="27"/>
@@ -7142,10 +7145,10 @@
         <v>83</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D92" s="27"/>
       <c r="E92" s="27"/>
@@ -7155,7 +7158,7 @@
       <c r="I92" s="27"/>
       <c r="J92" s="27"/>
       <c r="K92" s="29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L92" s="22"/>
       <c r="M92" s="27"/>
@@ -7196,10 +7199,10 @@
         <v>131</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D93" s="27"/>
       <c r="E93" s="27"/>
@@ -7209,7 +7212,7 @@
       <c r="I93" s="27"/>
       <c r="J93" s="27"/>
       <c r="K93" s="29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L93" s="22"/>
       <c r="M93" s="27"/>
@@ -7250,7 +7253,7 @@
         <v>161</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C94" s="22" t="s">
         <v>36</v>
@@ -7263,7 +7266,7 @@
       <c r="I94" s="27"/>
       <c r="J94" s="27"/>
       <c r="K94" s="29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L94" s="22"/>
       <c r="M94" s="27"/>
@@ -7287,7 +7290,7 @@
       <c r="AE94" s="27"/>
       <c r="AF94" s="22"/>
       <c r="AG94" s="25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AH94" s="22"/>
       <c r="AI94" s="22"/>
@@ -7303,13 +7306,13 @@
     </row>
     <row r="95" ht="18.75" customHeight="1">
       <c r="A95" s="20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D95" s="27"/>
       <c r="E95" s="27"/>
@@ -7321,7 +7324,7 @@
         <v>86</v>
       </c>
       <c r="K95" s="29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L95" s="36"/>
       <c r="M95" s="27"/>
@@ -7362,10 +7365,10 @@
         <v>83</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D96" s="27"/>
       <c r="E96" s="27"/>
@@ -7375,7 +7378,7 @@
       <c r="I96" s="27"/>
       <c r="J96" s="27"/>
       <c r="K96" s="29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L96" s="22"/>
       <c r="M96" s="27"/>
@@ -7413,10 +7416,10 @@
     </row>
     <row r="97" ht="12.75" customHeight="1">
       <c r="A97" s="40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C97" s="22" t="s">
         <v>36</v>
@@ -7516,7 +7519,7 @@
         <v>53</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C99" s="41"/>
       <c r="D99" s="27"/>
@@ -7612,7 +7615,7 @@
         <v>34</v>
       </c>
       <c r="B101" s="46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>36</v>
@@ -7626,7 +7629,7 @@
       <c r="J101" s="48"/>
       <c r="K101" s="48"/>
       <c r="L101" s="47" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M101" s="48"/>
       <c r="N101" s="47"/>
@@ -7668,10 +7671,10 @@
         <v>131</v>
       </c>
       <c r="B102" s="46" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C102" s="47" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D102" s="48"/>
       <c r="E102" s="48"/>
@@ -7720,10 +7723,10 @@
         <v>131</v>
       </c>
       <c r="B103" s="46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C103" s="47" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D103" s="48"/>
       <c r="E103" s="48"/>
@@ -7734,7 +7737,7 @@
       <c r="J103" s="48"/>
       <c r="K103" s="48"/>
       <c r="L103" s="47" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M103" s="48"/>
       <c r="N103" s="48"/>
@@ -7774,10 +7777,10 @@
         <v>131</v>
       </c>
       <c r="B104" s="46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C104" s="51" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D104" s="48"/>
       <c r="E104" s="48"/>
@@ -7826,10 +7829,10 @@
         <v>131</v>
       </c>
       <c r="B105" s="46" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D105" s="48"/>
       <c r="E105" s="48"/>
@@ -7840,7 +7843,7 @@
       <c r="J105" s="48"/>
       <c r="K105" s="48"/>
       <c r="L105" s="47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M105" s="48"/>
       <c r="N105" s="48"/>
@@ -7880,10 +7883,10 @@
         <v>131</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D106" s="27"/>
       <c r="E106" s="27"/>
@@ -7894,7 +7897,7 @@
       <c r="J106" s="22"/>
       <c r="K106" s="22"/>
       <c r="L106" s="29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M106" s="22"/>
       <c r="N106" s="27"/>
@@ -7934,10 +7937,10 @@
         <v>131</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D107" s="27"/>
       <c r="E107" s="27"/>
@@ -7948,7 +7951,7 @@
       <c r="J107" s="22"/>
       <c r="K107" s="22"/>
       <c r="L107" s="29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M107" s="22"/>
       <c r="N107" s="27"/>
@@ -7988,10 +7991,10 @@
         <v>131</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D108" s="27"/>
       <c r="E108" s="27"/>
@@ -8002,7 +8005,7 @@
       <c r="J108" s="22"/>
       <c r="K108" s="22"/>
       <c r="L108" s="29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M108" s="22"/>
       <c r="N108" s="27"/>
@@ -8042,10 +8045,10 @@
         <v>131</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D109" s="27"/>
       <c r="E109" s="27"/>
@@ -8056,7 +8059,7 @@
       <c r="J109" s="22"/>
       <c r="K109" s="22"/>
       <c r="L109" s="29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M109" s="22"/>
       <c r="N109" s="27"/>
@@ -8096,10 +8099,10 @@
         <v>131</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D110" s="27"/>
       <c r="E110" s="27"/>
@@ -8110,7 +8113,7 @@
       <c r="J110" s="22"/>
       <c r="K110" s="22"/>
       <c r="L110" s="29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M110" s="22"/>
       <c r="N110" s="27"/>
@@ -8150,10 +8153,10 @@
         <v>131</v>
       </c>
       <c r="B111" s="52" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D111" s="48"/>
       <c r="E111" s="48"/>
@@ -8163,10 +8166,10 @@
       <c r="I111" s="48"/>
       <c r="J111" s="48"/>
       <c r="K111" s="34" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L111" s="47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M111" s="48"/>
       <c r="N111" s="48"/>
@@ -8206,10 +8209,10 @@
         <v>131</v>
       </c>
       <c r="B112" s="52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C112" s="53" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D112" s="54"/>
       <c r="E112" s="54"/>
@@ -8219,10 +8222,10 @@
       <c r="I112" s="54"/>
       <c r="J112" s="50"/>
       <c r="K112" s="34" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L112" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M112" s="50"/>
       <c r="N112" s="50"/>
@@ -8262,10 +8265,10 @@
         <v>131</v>
       </c>
       <c r="B113" s="52" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C113" s="53" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D113" s="27"/>
       <c r="E113" s="27"/>
@@ -8275,10 +8278,10 @@
       <c r="I113" s="27"/>
       <c r="J113" s="22"/>
       <c r="K113" s="34" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L113" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M113" s="22"/>
       <c r="N113" s="27"/>
@@ -8318,10 +8321,10 @@
         <v>131</v>
       </c>
       <c r="B114" s="52" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C114" s="53" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D114" s="27"/>
       <c r="E114" s="27"/>
@@ -8331,10 +8334,10 @@
       <c r="I114" s="27"/>
       <c r="J114" s="22"/>
       <c r="K114" s="34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L114" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M114" s="22"/>
       <c r="N114" s="27"/>
@@ -8374,10 +8377,10 @@
         <v>131</v>
       </c>
       <c r="B115" s="52" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C115" s="53" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D115" s="27"/>
       <c r="E115" s="27"/>
@@ -8387,10 +8390,10 @@
       <c r="I115" s="27"/>
       <c r="J115" s="22"/>
       <c r="K115" s="34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L115" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M115" s="22"/>
       <c r="N115" s="27"/>
@@ -8430,10 +8433,10 @@
         <v>131</v>
       </c>
       <c r="B116" s="52" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C116" s="53" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D116" s="27"/>
       <c r="E116" s="27"/>
@@ -8443,10 +8446,10 @@
       <c r="I116" s="27"/>
       <c r="J116" s="22"/>
       <c r="K116" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L116" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M116" s="22"/>
       <c r="N116" s="27"/>
@@ -8486,10 +8489,10 @@
         <v>131</v>
       </c>
       <c r="B117" s="52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C117" s="53" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D117" s="27"/>
       <c r="E117" s="27"/>
@@ -8499,10 +8502,10 @@
       <c r="I117" s="27"/>
       <c r="J117" s="22"/>
       <c r="K117" s="34" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L117" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M117" s="22"/>
       <c r="N117" s="27"/>
@@ -8542,10 +8545,10 @@
         <v>131</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D118" s="27"/>
       <c r="E118" s="27"/>
@@ -8555,10 +8558,10 @@
       <c r="I118" s="27"/>
       <c r="J118" s="27"/>
       <c r="K118" s="56" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L118" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M118" s="27"/>
       <c r="N118" s="28"/>
@@ -8598,10 +8601,10 @@
         <v>131</v>
       </c>
       <c r="B119" s="52" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C119" s="34" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D119" s="48"/>
       <c r="E119" s="48"/>
@@ -8611,10 +8614,10 @@
       <c r="I119" s="48"/>
       <c r="J119" s="48"/>
       <c r="K119" s="34" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L119" s="47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M119" s="48"/>
       <c r="N119" s="48"/>
@@ -8654,10 +8657,10 @@
         <v>131</v>
       </c>
       <c r="B120" s="52" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C120" s="57" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D120" s="54"/>
       <c r="E120" s="54"/>
@@ -8667,10 +8670,10 @@
       <c r="I120" s="54"/>
       <c r="J120" s="50"/>
       <c r="K120" s="34" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L120" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M120" s="50"/>
       <c r="N120" s="50"/>
@@ -8710,10 +8713,10 @@
         <v>131</v>
       </c>
       <c r="B121" s="52" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C121" s="57" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D121" s="54"/>
       <c r="E121" s="54"/>
@@ -8723,10 +8726,10 @@
       <c r="I121" s="54"/>
       <c r="J121" s="50"/>
       <c r="K121" s="34" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L121" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M121" s="50"/>
       <c r="N121" s="50"/>
@@ -8766,10 +8769,10 @@
         <v>131</v>
       </c>
       <c r="B122" s="52" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C122" s="57" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D122" s="54"/>
       <c r="E122" s="54"/>
@@ -8779,10 +8782,10 @@
       <c r="I122" s="54"/>
       <c r="J122" s="50"/>
       <c r="K122" s="34" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L122" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M122" s="50"/>
       <c r="N122" s="50"/>
@@ -8822,10 +8825,10 @@
         <v>131</v>
       </c>
       <c r="B123" s="52" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C123" s="57" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D123" s="54"/>
       <c r="E123" s="54"/>
@@ -8835,10 +8838,10 @@
       <c r="I123" s="54"/>
       <c r="J123" s="50"/>
       <c r="K123" s="34" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L123" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M123" s="50"/>
       <c r="N123" s="50"/>
@@ -8878,10 +8881,10 @@
         <v>131</v>
       </c>
       <c r="B124" s="52" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C124" s="57" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D124" s="54"/>
       <c r="E124" s="54"/>
@@ -8891,10 +8894,10 @@
       <c r="I124" s="54"/>
       <c r="J124" s="50"/>
       <c r="K124" s="34" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L124" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M124" s="50"/>
       <c r="N124" s="50"/>
@@ -8934,10 +8937,10 @@
         <v>131</v>
       </c>
       <c r="B125" s="52" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C125" s="57" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D125" s="54"/>
       <c r="E125" s="54"/>
@@ -8947,10 +8950,10 @@
       <c r="I125" s="54"/>
       <c r="J125" s="50"/>
       <c r="K125" s="34" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L125" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M125" s="50"/>
       <c r="N125" s="50"/>
@@ -8990,10 +8993,10 @@
         <v>131</v>
       </c>
       <c r="B126" s="52" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C126" s="57" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D126" s="54"/>
       <c r="E126" s="54"/>
@@ -9003,10 +9006,10 @@
       <c r="I126" s="54"/>
       <c r="J126" s="50"/>
       <c r="K126" s="34" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L126" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M126" s="50"/>
       <c r="N126" s="50"/>
@@ -9046,10 +9049,10 @@
         <v>131</v>
       </c>
       <c r="B127" s="52" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C127" s="57" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D127" s="54"/>
       <c r="E127" s="54"/>
@@ -9059,10 +9062,10 @@
       <c r="I127" s="54"/>
       <c r="J127" s="50"/>
       <c r="K127" s="34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L127" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M127" s="50"/>
       <c r="N127" s="50"/>
@@ -9102,10 +9105,10 @@
         <v>131</v>
       </c>
       <c r="B128" s="52" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C128" s="57" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D128" s="54"/>
       <c r="E128" s="54"/>
@@ -9115,10 +9118,10 @@
       <c r="I128" s="54"/>
       <c r="J128" s="50"/>
       <c r="K128" s="34" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L128" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M128" s="50"/>
       <c r="N128" s="50"/>
@@ -9158,10 +9161,10 @@
         <v>131</v>
       </c>
       <c r="B129" s="52" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C129" s="57" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D129" s="54"/>
       <c r="E129" s="54"/>
@@ -9171,10 +9174,10 @@
       <c r="I129" s="54"/>
       <c r="J129" s="50"/>
       <c r="K129" s="34" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L129" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M129" s="50"/>
       <c r="N129" s="50"/>
@@ -9214,10 +9217,10 @@
         <v>131</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D130" s="27"/>
       <c r="E130" s="27"/>
@@ -9227,10 +9230,10 @@
       <c r="I130" s="27"/>
       <c r="J130" s="27"/>
       <c r="K130" s="56" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L130" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M130" s="27"/>
       <c r="N130" s="28"/>
@@ -9270,10 +9273,10 @@
         <v>131</v>
       </c>
       <c r="B131" s="52" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C131" s="57" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D131" s="54"/>
       <c r="E131" s="54"/>
@@ -9283,10 +9286,10 @@
       <c r="I131" s="54"/>
       <c r="J131" s="50"/>
       <c r="K131" s="34" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L131" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M131" s="50"/>
       <c r="N131" s="50"/>
@@ -9326,10 +9329,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="52" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C132" s="57" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D132" s="54"/>
       <c r="E132" s="54"/>
@@ -9339,10 +9342,10 @@
       <c r="I132" s="54"/>
       <c r="J132" s="50"/>
       <c r="K132" s="34" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L132" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M132" s="50"/>
       <c r="N132" s="50"/>
@@ -9382,10 +9385,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D133" s="27"/>
       <c r="E133" s="27"/>
@@ -9395,10 +9398,10 @@
       <c r="I133" s="27"/>
       <c r="J133" s="27"/>
       <c r="K133" s="56" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L133" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M133" s="27"/>
       <c r="N133" s="28"/>
@@ -9438,10 +9441,10 @@
         <v>131</v>
       </c>
       <c r="B134" s="52" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C134" s="34" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D134" s="48"/>
       <c r="E134" s="48"/>
@@ -9452,7 +9455,7 @@
       <c r="J134" s="48"/>
       <c r="K134" s="34"/>
       <c r="L134" s="34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M134" s="48"/>
       <c r="N134" s="48"/>
@@ -9492,10 +9495,10 @@
         <v>131</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D135" s="27"/>
       <c r="E135" s="27"/>
@@ -9506,7 +9509,7 @@
       <c r="J135" s="27"/>
       <c r="K135" s="58"/>
       <c r="L135" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M135" s="27"/>
       <c r="N135" s="28"/>
@@ -9594,7 +9597,7 @@
         <v>34</v>
       </c>
       <c r="B137" s="59" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C137" s="60" t="s">
         <v>36</v>
@@ -9650,7 +9653,7 @@
         <v>34</v>
       </c>
       <c r="B138" s="62" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C138" s="60" t="s">
         <v>36</v>
@@ -9702,7 +9705,7 @@
         <v>71</v>
       </c>
       <c r="B139" s="59" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C139" s="60" t="s">
         <v>36</v>
@@ -9725,7 +9728,7 @@
       <c r="S139" s="60"/>
       <c r="T139" s="60"/>
       <c r="U139" s="60" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="V139" s="60"/>
       <c r="W139" s="60"/>
@@ -9740,7 +9743,7 @@
       <c r="AF139" s="60"/>
       <c r="AG139" s="60"/>
       <c r="AH139" s="60" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AI139" s="60"/>
       <c r="AJ139" s="60"/>
@@ -9758,7 +9761,7 @@
         <v>71</v>
       </c>
       <c r="B140" s="59" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C140" s="60" t="s">
         <v>36</v>
@@ -9781,7 +9784,7 @@
       <c r="S140" s="60"/>
       <c r="T140" s="60"/>
       <c r="U140" s="60" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="V140" s="60"/>
       <c r="W140" s="60"/>
@@ -9814,7 +9817,7 @@
         <v>71</v>
       </c>
       <c r="B141" s="59" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C141" s="60" t="s">
         <v>36</v>
@@ -9837,7 +9840,7 @@
       <c r="S141" s="60"/>
       <c r="T141" s="60"/>
       <c r="U141" s="60" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="V141" s="60"/>
       <c r="W141" s="60"/>
@@ -9852,7 +9855,7 @@
       <c r="AF141" s="60"/>
       <c r="AG141" s="60"/>
       <c r="AH141" s="60" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AI141" s="60"/>
       <c r="AJ141" s="60"/>
@@ -9870,7 +9873,7 @@
         <v>71</v>
       </c>
       <c r="B142" s="59" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C142" s="60" t="s">
         <v>36</v>
@@ -9893,7 +9896,7 @@
       <c r="S142" s="60"/>
       <c r="T142" s="60"/>
       <c r="U142" s="60" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="V142" s="60"/>
       <c r="W142" s="60"/>
@@ -9926,7 +9929,7 @@
         <v>71</v>
       </c>
       <c r="B143" s="59" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C143" s="60" t="s">
         <v>36</v>
@@ -9949,7 +9952,7 @@
       <c r="S143" s="60"/>
       <c r="T143" s="60"/>
       <c r="U143" s="60" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="V143" s="60"/>
       <c r="W143" s="60"/>
@@ -9964,7 +9967,7 @@
       <c r="AF143" s="60"/>
       <c r="AG143" s="60"/>
       <c r="AH143" s="60" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AI143" s="60"/>
       <c r="AJ143" s="60"/>
@@ -9982,7 +9985,7 @@
         <v>53</v>
       </c>
       <c r="B144" s="62" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C144" s="60"/>
       <c r="D144" s="60"/>
@@ -10032,7 +10035,7 @@
         <v>53</v>
       </c>
       <c r="B145" s="62" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C145" s="60"/>
       <c r="D145" s="60"/>
@@ -41344,7 +41347,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="63" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B1" s="63" t="s">
         <v>1</v>
@@ -41376,13 +41379,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="65" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B2" s="65" t="s">
         <v>86</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D2" s="65"/>
       <c r="E2" s="65"/>
@@ -41406,13 +41409,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="65" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D3" s="65"/>
       <c r="E3" s="65"/>
@@ -41466,7 +41469,7 @@
         <v>111</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D5" s="65"/>
       <c r="E5" s="65"/>
@@ -41493,10 +41496,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C6" s="69" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D6" s="65"/>
       <c r="E6" s="65"/>
@@ -41547,10 +41550,10 @@
         <v>93</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="39"/>
@@ -41579,7 +41582,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D9" s="39"/>
       <c r="E9" s="39"/>
@@ -41605,10 +41608,10 @@
         <v>93</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
@@ -41634,10 +41637,10 @@
         <v>93</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
@@ -41686,10 +41689,10 @@
         <v>96</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D13" s="71"/>
       <c r="E13" s="72"/>
@@ -41720,10 +41723,10 @@
         <v>96</v>
       </c>
       <c r="B14" s="71" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C14" s="71" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D14" s="71"/>
       <c r="E14" s="72"/>
@@ -41754,10 +41757,10 @@
         <v>96</v>
       </c>
       <c r="B15" s="71" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C15" s="71" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D15" s="71"/>
       <c r="E15" s="72"/>
@@ -41788,10 +41791,10 @@
         <v>96</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D16" s="71"/>
       <c r="E16" s="72"/>
@@ -41822,10 +41825,10 @@
         <v>96</v>
       </c>
       <c r="B17" s="71" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C17" s="71" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D17" s="71"/>
       <c r="E17" s="72"/>
@@ -41856,10 +41859,10 @@
         <v>96</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C18" s="71" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D18" s="71"/>
       <c r="E18" s="72"/>
@@ -41890,10 +41893,10 @@
         <v>96</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D19" s="71"/>
       <c r="E19" s="72"/>
@@ -41924,10 +41927,10 @@
         <v>96</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C20" s="71" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D20" s="71"/>
       <c r="E20" s="72"/>
@@ -41958,10 +41961,10 @@
         <v>96</v>
       </c>
       <c r="B21" s="71" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D21" s="71"/>
       <c r="E21" s="72"/>
@@ -41992,10 +41995,10 @@
         <v>96</v>
       </c>
       <c r="B22" s="71" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C22" s="71" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D22" s="71"/>
       <c r="E22" s="72"/>
@@ -42026,10 +42029,10 @@
         <v>96</v>
       </c>
       <c r="B23" s="71" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D23" s="71"/>
       <c r="E23" s="72"/>
@@ -42060,10 +42063,10 @@
         <v>96</v>
       </c>
       <c r="B24" s="71" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C24" s="71" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D24" s="71"/>
       <c r="E24" s="72"/>
@@ -42094,10 +42097,10 @@
         <v>96</v>
       </c>
       <c r="B25" s="71" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C25" s="71" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D25" s="71"/>
       <c r="E25" s="72"/>
@@ -42128,10 +42131,10 @@
         <v>96</v>
       </c>
       <c r="B26" s="71" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C26" s="71" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D26" s="71"/>
       <c r="E26" s="72"/>
@@ -42162,10 +42165,10 @@
         <v>96</v>
       </c>
       <c r="B27" s="71" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C27" s="71" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="72"/>
@@ -42196,10 +42199,10 @@
         <v>96</v>
       </c>
       <c r="B28" s="71" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C28" s="71" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D28" s="71"/>
       <c r="E28" s="72"/>
@@ -42230,10 +42233,10 @@
         <v>96</v>
       </c>
       <c r="B29" s="71" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C29" s="71" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D29" s="71"/>
       <c r="E29" s="72"/>
@@ -42264,10 +42267,10 @@
         <v>96</v>
       </c>
       <c r="B30" s="71" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C30" s="71" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D30" s="71"/>
       <c r="E30" s="72"/>
@@ -42298,10 +42301,10 @@
         <v>96</v>
       </c>
       <c r="B31" s="71" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C31" s="71" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D31" s="71"/>
       <c r="E31" s="72"/>
@@ -42332,10 +42335,10 @@
         <v>96</v>
       </c>
       <c r="B32" s="71" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C32" s="71" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D32" s="71"/>
       <c r="E32" s="72"/>
@@ -42366,10 +42369,10 @@
         <v>96</v>
       </c>
       <c r="B33" s="71" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C33" s="71" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D33" s="71"/>
       <c r="E33" s="72"/>
@@ -42400,10 +42403,10 @@
         <v>96</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C34" s="71" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D34" s="71"/>
       <c r="E34" s="72"/>
@@ -42434,10 +42437,10 @@
         <v>96</v>
       </c>
       <c r="B35" s="71" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C35" s="71" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D35" s="71"/>
       <c r="E35" s="72"/>
@@ -42468,10 +42471,10 @@
         <v>96</v>
       </c>
       <c r="B36" s="71" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C36" s="71" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D36" s="71"/>
       <c r="E36" s="72"/>
@@ -42502,10 +42505,10 @@
         <v>96</v>
       </c>
       <c r="B37" s="71" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C37" s="71" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D37" s="71"/>
       <c r="E37" s="72"/>
@@ -42536,10 +42539,10 @@
         <v>96</v>
       </c>
       <c r="B38" s="71" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C38" s="71" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D38" s="71"/>
       <c r="E38" s="72"/>
@@ -42570,10 +42573,10 @@
         <v>96</v>
       </c>
       <c r="B39" s="71" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C39" s="71" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D39" s="71"/>
       <c r="E39" s="72"/>
@@ -42604,10 +42607,10 @@
         <v>96</v>
       </c>
       <c r="B40" s="71" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C40" s="71" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D40" s="71"/>
       <c r="E40" s="72"/>
@@ -42638,10 +42641,10 @@
         <v>96</v>
       </c>
       <c r="B41" s="71" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C41" s="71" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D41" s="71"/>
       <c r="E41" s="72"/>
@@ -42672,10 +42675,10 @@
         <v>96</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C42" s="71" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D42" s="71"/>
       <c r="E42" s="72"/>
@@ -42706,10 +42709,10 @@
         <v>96</v>
       </c>
       <c r="B43" s="71" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C43" s="71" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D43" s="71"/>
       <c r="E43" s="72"/>
@@ -42740,10 +42743,10 @@
         <v>96</v>
       </c>
       <c r="B44" s="71" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C44" s="71" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D44" s="71"/>
       <c r="E44" s="72"/>
@@ -42774,10 +42777,10 @@
         <v>96</v>
       </c>
       <c r="B45" s="71" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C45" s="71" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D45" s="71"/>
       <c r="E45" s="72"/>
@@ -42808,10 +42811,10 @@
         <v>96</v>
       </c>
       <c r="B46" s="71" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C46" s="71" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D46" s="71"/>
       <c r="E46" s="72"/>
@@ -42842,10 +42845,10 @@
         <v>96</v>
       </c>
       <c r="B47" s="71" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C47" s="71" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D47" s="71"/>
       <c r="E47" s="72"/>
@@ -42876,10 +42879,10 @@
         <v>96</v>
       </c>
       <c r="B48" s="71" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C48" s="71" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D48" s="71"/>
       <c r="E48" s="72"/>
@@ -42910,10 +42913,10 @@
         <v>96</v>
       </c>
       <c r="B49" s="71" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C49" s="71" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D49" s="71"/>
       <c r="E49" s="72"/>
@@ -42944,10 +42947,10 @@
         <v>96</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C50" s="71" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D50" s="71"/>
       <c r="E50" s="72"/>
@@ -42978,10 +42981,10 @@
         <v>96</v>
       </c>
       <c r="B51" s="71" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C51" s="71" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D51" s="71"/>
       <c r="E51" s="72"/>
@@ -43012,10 +43015,10 @@
         <v>96</v>
       </c>
       <c r="B52" s="71" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C52" s="71" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D52" s="71"/>
       <c r="E52" s="72"/>
@@ -43046,10 +43049,10 @@
         <v>96</v>
       </c>
       <c r="B53" s="71" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C53" s="71" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D53" s="71"/>
       <c r="E53" s="72"/>
@@ -43080,10 +43083,10 @@
         <v>96</v>
       </c>
       <c r="B54" s="71" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C54" s="71" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D54" s="71"/>
       <c r="E54" s="72"/>
@@ -43114,10 +43117,10 @@
         <v>96</v>
       </c>
       <c r="B55" s="71" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C55" s="71" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D55" s="71"/>
       <c r="E55" s="72"/>
@@ -43148,10 +43151,10 @@
         <v>96</v>
       </c>
       <c r="B56" s="71" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C56" s="71" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D56" s="71"/>
       <c r="E56" s="72"/>
@@ -43182,10 +43185,10 @@
         <v>96</v>
       </c>
       <c r="B57" s="71" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C57" s="71" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D57" s="71"/>
       <c r="E57" s="72"/>
@@ -43216,10 +43219,10 @@
         <v>96</v>
       </c>
       <c r="B58" s="71" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C58" s="71" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D58" s="71"/>
       <c r="E58" s="72"/>
@@ -43250,10 +43253,10 @@
         <v>96</v>
       </c>
       <c r="B59" s="71" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C59" s="71" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D59" s="71"/>
       <c r="E59" s="72"/>
@@ -43306,10 +43309,10 @@
         <v>116</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C61" s="57" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D61" s="39"/>
       <c r="E61" s="39"/>
@@ -43335,10 +43338,10 @@
         <v>116</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C62" s="57" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D62" s="39"/>
       <c r="E62" s="39"/>
@@ -43364,10 +43367,10 @@
         <v>116</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C63" s="57" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D63" s="39"/>
       <c r="E63" s="39"/>
@@ -43393,10 +43396,10 @@
         <v>116</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C64" s="57" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D64" s="39"/>
       <c r="E64" s="39"/>
@@ -43422,10 +43425,10 @@
         <v>116</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C65" s="57" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D65" s="39"/>
       <c r="E65" s="39"/>
@@ -43451,10 +43454,10 @@
         <v>116</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C66" s="57" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D66" s="39"/>
       <c r="E66" s="39"/>
@@ -43480,10 +43483,10 @@
         <v>116</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C67" s="57" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D67" s="39"/>
       <c r="E67" s="39"/>
@@ -43509,10 +43512,10 @@
         <v>116</v>
       </c>
       <c r="B68" s="57" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C68" s="57" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D68" s="39"/>
       <c r="E68" s="39"/>
@@ -43538,10 +43541,10 @@
         <v>116</v>
       </c>
       <c r="B69" s="57" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C69" s="57" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D69" s="39"/>
       <c r="E69" s="39"/>
@@ -43567,10 +43570,10 @@
         <v>116</v>
       </c>
       <c r="B70" s="57" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C70" s="57" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D70" s="39"/>
       <c r="E70" s="39"/>
@@ -43619,10 +43622,10 @@
         <v>106</v>
       </c>
       <c r="B72" s="53" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C72" s="53" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D72" s="39"/>
       <c r="E72" s="39"/>
@@ -43648,10 +43651,10 @@
         <v>106</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C73" s="53" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D73" s="39"/>
       <c r="E73" s="39"/>
@@ -43677,10 +43680,10 @@
         <v>106</v>
       </c>
       <c r="B74" s="53" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C74" s="53" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D74" s="39"/>
       <c r="E74" s="39"/>
@@ -43706,10 +43709,10 @@
         <v>106</v>
       </c>
       <c r="B75" s="53" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C75" s="53" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D75" s="39"/>
       <c r="E75" s="39"/>
@@ -43735,10 +43738,10 @@
         <v>106</v>
       </c>
       <c r="B76" s="53" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C76" s="53" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D76" s="39"/>
       <c r="E76" s="39"/>
@@ -43764,10 +43767,10 @@
         <v>106</v>
       </c>
       <c r="B77" s="53" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C77" s="53" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D77" s="39"/>
       <c r="E77" s="39"/>
@@ -43813,13 +43816,13 @@
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="75" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B79" s="76" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C79" s="76" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D79" s="39"/>
       <c r="E79" s="39"/>
@@ -43842,13 +43845,13 @@
     </row>
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="75" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B80" s="76" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C80" s="76" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D80" s="39"/>
       <c r="E80" s="39"/>
@@ -43871,13 +43874,13 @@
     </row>
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="75" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B81" s="76" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C81" s="76" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D81" s="39"/>
       <c r="E81" s="39"/>
@@ -43900,13 +43903,13 @@
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="75" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B82" s="76" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C82" s="76" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D82" s="39"/>
       <c r="E82" s="39"/>
@@ -43929,13 +43932,13 @@
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="75" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B83" s="76" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C83" s="76" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D83" s="39"/>
       <c r="E83" s="39"/>
@@ -43958,13 +43961,13 @@
     </row>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="75" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B84" s="76" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C84" s="76" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D84" s="39"/>
       <c r="E84" s="39"/>
@@ -51305,25 +51308,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="77" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F1" s="77" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G1" s="78" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H1" s="77"/>
       <c r="I1" s="77"/>
@@ -51347,24 +51350,24 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="79" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C2" s="80">
         <f>NOW()</f>
-        <v>45094.20004</v>
+        <v>45121.07195</v>
       </c>
       <c r="D2" s="81" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E2" s="81" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F2" s="66"/>
       <c r="G2" s="82" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2" s="66"/>
       <c r="I2" s="66"/>
@@ -52412,7 +52415,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="77" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B1" s="77" t="s">
         <v>1</v>
@@ -52455,13 +52458,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="67" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B2" s="67" t="s">
         <v>86</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D2" s="67"/>
       <c r="E2" s="67"/>
@@ -52486,13 +52489,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="67" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D3" s="67"/>
       <c r="E3" s="67"/>
@@ -52542,13 +52545,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="67" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C5" s="67" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D5" s="67"/>
       <c r="E5" s="67"/>
@@ -52573,13 +52576,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="67" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C6" s="67" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
@@ -52604,13 +52607,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="67" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
@@ -52635,13 +52638,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="67" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C8" s="67" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D8" s="67"/>
       <c r="E8" s="67"/>
@@ -52666,13 +52669,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="67" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
@@ -52722,13 +52725,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="67" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D11" s="67"/>
       <c r="E11" s="67"/>
@@ -52753,13 +52756,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="67" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C12" s="67" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D12" s="67"/>
       <c r="E12" s="67"/>
@@ -52784,13 +52787,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="67" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C13" s="67" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D13" s="67"/>
       <c r="E13" s="67"/>
@@ -52815,13 +52818,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="67" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C14" s="67" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D14" s="67"/>
       <c r="E14" s="67"/>
@@ -52846,13 +52849,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="67" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C15" s="67" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D15" s="67"/>
       <c r="E15" s="67"/>
@@ -52877,13 +52880,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="67" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B16" s="67" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D16" s="67"/>
       <c r="E16" s="67"/>
@@ -52933,13 +52936,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="67" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D18" s="67"/>
       <c r="E18" s="67"/>
@@ -52964,13 +52967,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="67" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D19" s="67"/>
       <c r="E19" s="67"/>
@@ -52995,13 +52998,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="67" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D20" s="67"/>
       <c r="E20" s="67"/>
@@ -53026,13 +53029,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="67" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B21" s="67" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D21" s="67"/>
       <c r="E21" s="67"/>
@@ -53057,13 +53060,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="67" t="s">
+        <v>431</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>429</v>
+      </c>
+      <c r="C22" s="67" t="s">
         <v>430</v>
-      </c>
-      <c r="B22" s="67" t="s">
-        <v>428</v>
-      </c>
-      <c r="C22" s="67" t="s">
-        <v>429</v>
       </c>
       <c r="D22" s="67"/>
       <c r="E22" s="67"/>
@@ -53088,13 +53091,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="67" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C23" s="67" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D23" s="67"/>
       <c r="E23" s="67"/>
@@ -53144,13 +53147,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="67" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B25" s="67" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C25" s="67" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D25" s="67"/>
       <c r="E25" s="67"/>
@@ -53175,13 +53178,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="67" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C26" s="67" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D26" s="67"/>
       <c r="E26" s="67"/>
@@ -53206,13 +53209,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="67" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C27" s="67" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D27" s="67"/>
       <c r="E27" s="67"/>
@@ -53237,13 +53240,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="67" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B28" s="67" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C28" s="67" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D28" s="67"/>
       <c r="E28" s="67"/>
@@ -53268,13 +53271,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="67" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B29" s="67" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C29" s="67" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D29" s="67"/>
       <c r="E29" s="67"/>
@@ -53324,13 +53327,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="67" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B31" s="67" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C31" s="67" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D31" s="67"/>
       <c r="E31" s="67"/>
@@ -53355,13 +53358,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="67" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B32" s="67" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C32" s="67" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D32" s="67"/>
       <c r="E32" s="67"/>
@@ -53411,121 +53414,121 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="90" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B34" s="90" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" s="90" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="90" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B35" s="90" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" s="90" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="90" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B36" s="90" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" s="90" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="90" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B37" s="90" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" s="90" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="90" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B38" s="90" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" s="90" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="90" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B39" s="90" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" s="90" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="90" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B40" s="90" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" s="90" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="90" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B41" s="90" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" s="90" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="90" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B42" s="90" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" s="90" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="90" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B43" s="90" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C43" s="90" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -53536,26 +53539,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="90" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B45" s="90" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" s="90" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="90" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B46" s="90" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" s="90" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -53566,13 +53569,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="81" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B48" s="81" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C48" s="81" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D48" s="81"/>
       <c r="E48" s="81"/>
@@ -53597,13 +53600,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="81" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B49" s="81" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C49" s="81" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D49" s="81"/>
       <c r="E49" s="81"/>
@@ -53629,226 +53632,226 @@
     <row r="50" ht="12.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="90" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B51" s="90" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C51" s="90" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="90" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B52" s="90" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C52" s="90" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="90" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B53" s="90" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C53" s="90" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="90" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B54" s="90" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C54" s="90" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="90" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B55" s="90" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C55" s="90" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="90" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B56" s="90" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C56" s="90" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="81" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B58" s="81" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C58" s="81" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="81" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B59" s="81" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C59" s="81" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="81" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B60" s="81" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C60" s="81" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="81" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B61" s="81" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C61" s="81" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="66" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B63" s="66" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C63" s="81" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="66" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B64" s="66" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C64" s="81" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="66" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B65" s="66" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C65" s="81" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="66" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B66" s="66" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C66" s="81" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="66" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B67" s="66" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C67" s="81" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="90" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B69" s="90" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C69" s="90" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="90" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B70" s="90" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C70" s="90" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="90" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B72" s="90" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C72" s="91" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="90" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B73" s="90" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C73" s="90" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="90" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B74" s="90" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C74" s="90" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/cht_app/forms/app/padr.xlsx
+++ b/cht_app/forms/app/padr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="403">
   <si>
     <t>type</t>
   </si>
@@ -892,37 +892,16 @@
     <t>The packet or bottle does not seem to be usual or complete</t>
   </si>
   <si>
-    <t>recovered/resolved</t>
-  </si>
-  <si>
     <t>Recovered/Resolved</t>
-  </si>
-  <si>
-    <t>recovering/resolving</t>
   </si>
   <si>
     <t>Recovering/Resolving</t>
   </si>
   <si>
-    <t>recovered/resolved_with_sequelae</t>
-  </si>
-  <si>
-    <t>Recovered/Resolved with sequelae</t>
-  </si>
-  <si>
-    <t>not_recovered/not_resolved</t>
-  </si>
-  <si>
     <t>Not recovered/Not resolved</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
     <t>Death</t>
-  </si>
-  <si>
-    <t>unknown</t>
   </si>
   <si>
     <t>Unknown</t>
@@ -1073,6 +1052,9 @@
   </si>
   <si>
     <t>known</t>
+  </si>
+  <si>
+    <t>unknown</t>
   </si>
   <si>
     <t>fp_methods</t>
@@ -41436,7 +41418,7 @@
         <v>292</v>
       </c>
       <c r="C79" s="66" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D79" s="41"/>
       <c r="E79" s="41"/>
@@ -41462,10 +41444,10 @@
         <v>182</v>
       </c>
       <c r="B80" s="66" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C80" s="66" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D80" s="41"/>
       <c r="E80" s="41"/>
@@ -41491,10 +41473,10 @@
         <v>182</v>
       </c>
       <c r="B81" s="66" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C81" s="66" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D81" s="41"/>
       <c r="E81" s="41"/>
@@ -41520,10 +41502,10 @@
         <v>182</v>
       </c>
       <c r="B82" s="66" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C82" s="66" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D82" s="41"/>
       <c r="E82" s="41"/>
@@ -41549,10 +41531,10 @@
         <v>182</v>
       </c>
       <c r="B83" s="66" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C83" s="66" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D83" s="41"/>
       <c r="E83" s="41"/>
@@ -41574,15 +41556,9 @@
       <c r="U83" s="41"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="B84" s="66" t="s">
-        <v>302</v>
-      </c>
-      <c r="C84" s="66" t="s">
-        <v>303</v>
-      </c>
+      <c r="A84" s="41"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="41"/>
       <c r="D84" s="41"/>
       <c r="E84" s="41"/>
       <c r="F84" s="41"/>
@@ -48869,29 +48845,6 @@
       <c r="S400" s="41"/>
       <c r="T400" s="41"/>
       <c r="U400" s="41"/>
-    </row>
-    <row r="401" ht="12.75" customHeight="1">
-      <c r="A401" s="41"/>
-      <c r="B401" s="41"/>
-      <c r="C401" s="41"/>
-      <c r="D401" s="41"/>
-      <c r="E401" s="41"/>
-      <c r="F401" s="41"/>
-      <c r="G401" s="41"/>
-      <c r="H401" s="41"/>
-      <c r="I401" s="41"/>
-      <c r="J401" s="41"/>
-      <c r="K401" s="41"/>
-      <c r="L401" s="41"/>
-      <c r="M401" s="41"/>
-      <c r="N401" s="41"/>
-      <c r="O401" s="41"/>
-      <c r="P401" s="41"/>
-      <c r="Q401" s="41"/>
-      <c r="R401" s="41"/>
-      <c r="S401" s="41"/>
-      <c r="T401" s="41"/>
-      <c r="U401" s="41"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -48922,25 +48875,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="67" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G1" s="68" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="H1" s="67"/>
       <c r="I1" s="67"/>
@@ -48964,24 +48917,24 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="69" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C2" s="70">
         <f>NOW()</f>
-        <v>45124.43335</v>
+        <v>45125.07374</v>
       </c>
       <c r="D2" s="71" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E2" s="71" t="s">
         <v>184</v>
       </c>
       <c r="F2" s="54"/>
       <c r="G2" s="72" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H2" s="54"/>
       <c r="I2" s="54"/>
@@ -50159,13 +50112,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="55" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D5" s="55"/>
       <c r="E5" s="55"/>
@@ -50190,13 +50143,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="55" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D6" s="55"/>
       <c r="E6" s="55"/>
@@ -50221,13 +50174,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="55" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D7" s="55"/>
       <c r="E7" s="55"/>
@@ -50252,13 +50205,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="B8" s="55" t="s">
         <v>315</v>
       </c>
-      <c r="B8" s="55" t="s">
-        <v>322</v>
-      </c>
       <c r="C8" s="55" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
@@ -50283,13 +50236,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="55" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D9" s="55"/>
       <c r="E9" s="55"/>
@@ -50339,13 +50292,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="55" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
@@ -50370,13 +50323,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="55" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
@@ -50401,13 +50354,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="55" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
@@ -50432,13 +50385,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="B14" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="B14" s="55" t="s">
-        <v>333</v>
-      </c>
       <c r="C14" s="55" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
@@ -50463,13 +50416,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="55" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
@@ -50494,13 +50447,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="55" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
@@ -50550,13 +50503,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="55" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
@@ -50581,13 +50534,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="55" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
@@ -50612,13 +50565,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="55" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
@@ -50643,13 +50596,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="55" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
@@ -50674,13 +50627,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="55" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
@@ -50705,13 +50658,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="55" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
@@ -50761,13 +50714,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="55" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
@@ -50792,13 +50745,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="55" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
@@ -50823,13 +50776,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="55" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
@@ -50854,13 +50807,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="55" t="s">
+        <v>335</v>
+      </c>
+      <c r="B28" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="B28" s="55" t="s">
-        <v>349</v>
-      </c>
       <c r="C28" s="55" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
@@ -50885,7 +50838,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="55" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B29" s="55" t="s">
         <v>212</v>
@@ -50941,10 +50894,10 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="55" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C31" s="55" t="s">
         <v>201</v>
@@ -50972,10 +50925,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="55" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="C32" s="55" t="s">
         <v>203</v>
@@ -51028,115 +50981,115 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="80" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B34" s="80" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" s="80" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="80" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B35" s="80" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" s="80" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="80" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B36" s="80" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" s="80" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="80" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B37" s="80" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" s="80" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="80" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B38" s="80" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" s="80" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="80" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B39" s="80" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" s="80" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="80" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B40" s="80" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" s="80" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="80" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B41" s="80" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" s="80" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="80" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B42" s="80" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" s="80" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="80" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B43" s="80" t="s">
         <v>212</v>
@@ -51153,26 +51106,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="80" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B45" s="80" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" s="80" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="80" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B46" s="80" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" s="80" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -51183,13 +51136,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="71" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B48" s="71" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C48" s="71" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D48" s="71"/>
       <c r="E48" s="71"/>
@@ -51214,13 +51167,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="71" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B49" s="71" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C49" s="71" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D49" s="71"/>
       <c r="E49" s="71"/>
@@ -51246,62 +51199,62 @@
     <row r="50" ht="12.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="80" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B51" s="80" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C51" s="80" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="80" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B52" s="80" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C52" s="80" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="80" t="s">
+        <v>365</v>
+      </c>
+      <c r="B53" s="80" t="s">
+        <v>370</v>
+      </c>
+      <c r="C53" s="80" t="s">
         <v>371</v>
-      </c>
-      <c r="B53" s="80" t="s">
-        <v>376</v>
-      </c>
-      <c r="C53" s="80" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="80" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B54" s="80" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C54" s="80" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="80" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B55" s="80" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C55" s="80" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="80" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B56" s="80" t="s">
         <v>212</v>
@@ -51313,40 +51266,40 @@
     <row r="57" ht="12.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="71" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B58" s="71" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C58" s="71" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="71" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B59" s="71" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C59" s="71" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="71" t="s">
+        <v>376</v>
+      </c>
+      <c r="B60" s="71" t="s">
+        <v>381</v>
+      </c>
+      <c r="C60" s="71" t="s">
         <v>382</v>
-      </c>
-      <c r="B60" s="71" t="s">
-        <v>387</v>
-      </c>
-      <c r="C60" s="71" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="71" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B61" s="71" t="s">
         <v>212</v>
@@ -51358,108 +51311,108 @@
     <row r="62" ht="12.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="54" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B63" s="54" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C63" s="71" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="54" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B64" s="54" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C64" s="71" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="54" t="s">
+        <v>383</v>
+      </c>
+      <c r="B65" s="54" t="s">
+        <v>388</v>
+      </c>
+      <c r="C65" s="71" t="s">
         <v>389</v>
-      </c>
-      <c r="B65" s="54" t="s">
-        <v>394</v>
-      </c>
-      <c r="C65" s="71" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="54" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B66" s="54" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C66" s="71" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="54" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B67" s="54" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C67" s="71" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="80" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B69" s="80" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C69" s="80" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="80" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B70" s="80" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C70" s="80" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="80" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B72" s="80" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C72" s="81" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="80" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B73" s="80" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C73" s="80" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="80" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B74" s="80" t="s">
         <v>212</v>

--- a/cht_app/forms/app/padr.xlsx
+++ b/cht_app/forms/app/padr.xlsx
@@ -898,7 +898,7 @@
     <t>Recovering/Resolving</t>
   </si>
   <si>
-    <t>Not recovered/Not resolved</t>
+    <t>Not Recovered/Not Resolved</t>
   </si>
   <si>
     <t>Death</t>
@@ -48924,7 +48924,7 @@
       </c>
       <c r="C2" s="70">
         <f>NOW()</f>
-        <v>45125.07374</v>
+        <v>45125.10823</v>
       </c>
       <c r="D2" s="71" t="s">
         <v>306</v>

--- a/cht_app/forms/app/padr.xlsx
+++ b/cht_app/forms/app/padr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="439">
   <si>
     <t>type</t>
   </si>
@@ -651,7 +651,7 @@
     <t>r_referral</t>
   </si>
   <si>
-    <t>&lt;b&gt;Please refer${patient_display_name} to the nearest health facility.&lt;/b&gt;</t>
+    <t>&lt;b&gt;Please refer ${patient_display_name} to the nearest health facility.&lt;/b&gt;</t>
   </si>
   <si>
     <t>selected(${outcome},'Unknown') or selected(${outcome},'Not Recovered/Not Resolved')</t>
@@ -6371,9 +6371,7 @@
       <c r="G81" s="28"/>
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
-      <c r="J81" s="37" t="s">
-        <v>93</v>
-      </c>
+      <c r="J81" s="37"/>
       <c r="K81" s="28" t="s">
         <v>155</v>
       </c>
@@ -6431,9 +6429,7 @@
       <c r="G82" s="28"/>
       <c r="H82" s="28"/>
       <c r="I82" s="28"/>
-      <c r="J82" s="37" t="s">
-        <v>93</v>
-      </c>
+      <c r="J82" s="37"/>
       <c r="K82" s="28" t="s">
         <v>155</v>
       </c>
@@ -6929,9 +6925,7 @@
       <c r="G91" s="28"/>
       <c r="H91" s="28"/>
       <c r="I91" s="28"/>
-      <c r="J91" s="37" t="s">
-        <v>93</v>
-      </c>
+      <c r="J91" s="37"/>
       <c r="K91" s="37" t="s">
         <v>172</v>
       </c>
@@ -6989,9 +6983,7 @@
       <c r="G92" s="28"/>
       <c r="H92" s="28"/>
       <c r="I92" s="28"/>
-      <c r="J92" s="37" t="s">
-        <v>93</v>
-      </c>
+      <c r="J92" s="37"/>
       <c r="K92" s="37" t="s">
         <v>172</v>
       </c>
@@ -49269,7 +49261,7 @@
       </c>
       <c r="C2" s="84">
         <f>NOW()</f>
-        <v>45126.06008</v>
+        <v>45127.08271</v>
       </c>
       <c r="D2" s="85" t="s">
         <v>342</v>

--- a/cht_app/forms/app/padr.xlsx
+++ b/cht_app/forms/app/padr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="436">
   <si>
     <t>type</t>
   </si>
@@ -301,7 +301,7 @@
     <t>form</t>
   </si>
   <si>
-    <t>selected(${available},'yes')</t>
+    <t>selected(${available},'Yes')</t>
   </si>
   <si>
     <t>reporter</t>
@@ -370,7 +370,7 @@
     <t>POOR QUALITY MEDICINE</t>
   </si>
   <si>
-    <t>selected(../reporter/group_report/type, 'medicine')</t>
+    <t>selected(../reporter/group_report/type, 'Poor Quality Medicine')</t>
   </si>
   <si>
     <t>group_quality</t>
@@ -400,7 +400,7 @@
     <t>Side Effects</t>
   </si>
   <si>
-    <t>selected(../reporter/group_report/type, 'reaction')</t>
+    <t>selected(../reporter/group_report/type, 'Adverse Reaction')</t>
   </si>
   <si>
     <t>group_reaction</t>
@@ -735,22 +735,13 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>Adverse Reaction</t>
   </si>
   <si>
-    <t>medicine</t>
-  </si>
-  <si>
     <t>Poor Quality Medicine</t>
-  </si>
-  <si>
-    <t>self</t>
   </si>
   <si>
     <t>Self</t>
@@ -759,13 +750,7 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>guardian</t>
-  </si>
-  <si>
     <t>Guardian</t>
-  </si>
-  <si>
-    <t>other</t>
   </si>
   <si>
     <t>Other</t>
@@ -1053,6 +1038,9 @@
     <t>en</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>lmp_approximations</t>
   </si>
   <si>
@@ -1159,6 +1147,9 @@
   </si>
   <si>
     <t>Known diabetes</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
   <si>
     <t>hiv_statuses</t>
@@ -1758,11 +1749,11 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -39314,8 +39305,8 @@
       <c r="A2" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="54" t="s">
-        <v>93</v>
+      <c r="B2" s="69" t="s">
+        <v>237</v>
       </c>
       <c r="C2" s="54" t="s">
         <v>237</v>
@@ -39338,17 +39329,17 @@
       <c r="S2" s="54"/>
       <c r="T2" s="54"/>
       <c r="U2" s="54"/>
-      <c r="V2" s="69"/>
+      <c r="V2" s="70"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="69" t="s">
         <v>238</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="54"/>
@@ -39368,7 +39359,7 @@
       <c r="S3" s="54"/>
       <c r="T3" s="54"/>
       <c r="U3" s="54"/>
-      <c r="V3" s="69"/>
+      <c r="V3" s="70"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="54"/>
@@ -39392,17 +39383,17 @@
       <c r="S4" s="54"/>
       <c r="T4" s="54"/>
       <c r="U4" s="54"/>
-      <c r="V4" s="69"/>
+      <c r="V4" s="70"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="69" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>126</v>
+        <v>239</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D5" s="54"/>
       <c r="E5" s="54"/>
@@ -39422,17 +39413,17 @@
       <c r="S5" s="54"/>
       <c r="T5" s="54"/>
       <c r="U5" s="54"/>
-      <c r="V5" s="69"/>
+      <c r="V5" s="70"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="69" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C6" s="71" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
@@ -39452,10 +39443,10 @@
       <c r="S6" s="54"/>
       <c r="T6" s="54"/>
       <c r="U6" s="54"/>
-      <c r="V6" s="69"/>
+      <c r="V6" s="70"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="70"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="72"/>
       <c r="C7" s="72"/>
       <c r="D7" s="54"/>
@@ -39476,17 +39467,17 @@
       <c r="S7" s="54"/>
       <c r="T7" s="54"/>
       <c r="U7" s="54"/>
-      <c r="V7" s="69"/>
+      <c r="V7" s="70"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="70" t="s">
-        <v>244</v>
+      <c r="B8" s="69" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>241</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
@@ -39508,14 +39499,14 @@
       <c r="U8" s="46"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="70" t="s">
-        <v>245</v>
+      <c r="B9" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>242</v>
       </c>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
@@ -39537,14 +39528,14 @@
       <c r="U9" s="46"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="70" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" s="70" t="s">
-        <v>247</v>
+      <c r="B10" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>243</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
@@ -39566,14 +39557,14 @@
       <c r="U10" s="46"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="70" t="s">
-        <v>248</v>
-      </c>
-      <c r="C11" s="70" t="s">
-        <v>249</v>
+      <c r="B11" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>244</v>
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
@@ -39622,10 +39613,10 @@
         <v>111</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D13" s="73"/>
       <c r="E13" s="74"/>
@@ -39656,10 +39647,10 @@
         <v>111</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D14" s="73"/>
       <c r="E14" s="74"/>
@@ -39690,10 +39681,10 @@
         <v>111</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D15" s="73"/>
       <c r="E15" s="74"/>
@@ -39724,10 +39715,10 @@
         <v>111</v>
       </c>
       <c r="B16" s="73" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C16" s="73" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D16" s="73"/>
       <c r="E16" s="74"/>
@@ -39758,10 +39749,10 @@
         <v>111</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D17" s="73"/>
       <c r="E17" s="74"/>
@@ -39792,10 +39783,10 @@
         <v>111</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D18" s="73"/>
       <c r="E18" s="74"/>
@@ -39826,10 +39817,10 @@
         <v>111</v>
       </c>
       <c r="B19" s="73" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D19" s="73"/>
       <c r="E19" s="74"/>
@@ -39860,10 +39851,10 @@
         <v>111</v>
       </c>
       <c r="B20" s="73" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D20" s="73"/>
       <c r="E20" s="74"/>
@@ -39894,10 +39885,10 @@
         <v>111</v>
       </c>
       <c r="B21" s="73" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C21" s="73" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D21" s="73"/>
       <c r="E21" s="74"/>
@@ -39928,10 +39919,10 @@
         <v>111</v>
       </c>
       <c r="B22" s="73" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D22" s="73"/>
       <c r="E22" s="74"/>
@@ -39962,10 +39953,10 @@
         <v>111</v>
       </c>
       <c r="B23" s="73" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C23" s="73" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D23" s="73"/>
       <c r="E23" s="74"/>
@@ -39996,10 +39987,10 @@
         <v>111</v>
       </c>
       <c r="B24" s="73" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C24" s="73" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D24" s="73"/>
       <c r="E24" s="74"/>
@@ -40030,10 +40021,10 @@
         <v>111</v>
       </c>
       <c r="B25" s="73" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C25" s="73" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D25" s="73"/>
       <c r="E25" s="74"/>
@@ -40064,10 +40055,10 @@
         <v>111</v>
       </c>
       <c r="B26" s="73" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C26" s="73" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D26" s="73"/>
       <c r="E26" s="74"/>
@@ -40098,10 +40089,10 @@
         <v>111</v>
       </c>
       <c r="B27" s="73" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C27" s="73" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D27" s="73"/>
       <c r="E27" s="74"/>
@@ -40132,10 +40123,10 @@
         <v>111</v>
       </c>
       <c r="B28" s="73" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C28" s="73" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D28" s="73"/>
       <c r="E28" s="74"/>
@@ -40166,10 +40157,10 @@
         <v>111</v>
       </c>
       <c r="B29" s="73" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C29" s="73" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D29" s="73"/>
       <c r="E29" s="74"/>
@@ -40200,10 +40191,10 @@
         <v>111</v>
       </c>
       <c r="B30" s="73" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D30" s="73"/>
       <c r="E30" s="74"/>
@@ -40234,10 +40225,10 @@
         <v>111</v>
       </c>
       <c r="B31" s="73" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C31" s="73" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D31" s="73"/>
       <c r="E31" s="74"/>
@@ -40268,10 +40259,10 @@
         <v>111</v>
       </c>
       <c r="B32" s="73" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C32" s="73" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D32" s="73"/>
       <c r="E32" s="74"/>
@@ -40302,10 +40293,10 @@
         <v>111</v>
       </c>
       <c r="B33" s="73" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C33" s="73" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D33" s="73"/>
       <c r="E33" s="74"/>
@@ -40336,10 +40327,10 @@
         <v>111</v>
       </c>
       <c r="B34" s="73" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C34" s="73" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D34" s="73"/>
       <c r="E34" s="74"/>
@@ -40370,10 +40361,10 @@
         <v>111</v>
       </c>
       <c r="B35" s="73" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C35" s="73" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D35" s="73"/>
       <c r="E35" s="74"/>
@@ -40404,10 +40395,10 @@
         <v>111</v>
       </c>
       <c r="B36" s="73" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C36" s="73" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D36" s="73"/>
       <c r="E36" s="74"/>
@@ -40438,10 +40429,10 @@
         <v>111</v>
       </c>
       <c r="B37" s="73" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C37" s="73" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D37" s="73"/>
       <c r="E37" s="74"/>
@@ -40472,10 +40463,10 @@
         <v>111</v>
       </c>
       <c r="B38" s="73" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C38" s="73" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D38" s="73"/>
       <c r="E38" s="74"/>
@@ -40506,10 +40497,10 @@
         <v>111</v>
       </c>
       <c r="B39" s="73" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C39" s="73" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D39" s="73"/>
       <c r="E39" s="74"/>
@@ -40540,10 +40531,10 @@
         <v>111</v>
       </c>
       <c r="B40" s="73" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C40" s="73" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D40" s="73"/>
       <c r="E40" s="74"/>
@@ -40574,10 +40565,10 @@
         <v>111</v>
       </c>
       <c r="B41" s="73" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C41" s="73" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D41" s="73"/>
       <c r="E41" s="74"/>
@@ -40608,10 +40599,10 @@
         <v>111</v>
       </c>
       <c r="B42" s="73" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C42" s="73" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D42" s="73"/>
       <c r="E42" s="74"/>
@@ -40642,10 +40633,10 @@
         <v>111</v>
       </c>
       <c r="B43" s="73" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C43" s="73" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D43" s="73"/>
       <c r="E43" s="74"/>
@@ -40676,10 +40667,10 @@
         <v>111</v>
       </c>
       <c r="B44" s="73" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C44" s="73" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D44" s="73"/>
       <c r="E44" s="74"/>
@@ -40710,10 +40701,10 @@
         <v>111</v>
       </c>
       <c r="B45" s="73" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C45" s="73" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D45" s="73"/>
       <c r="E45" s="74"/>
@@ -40744,10 +40735,10 @@
         <v>111</v>
       </c>
       <c r="B46" s="73" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C46" s="73" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D46" s="73"/>
       <c r="E46" s="74"/>
@@ -40778,10 +40769,10 @@
         <v>111</v>
       </c>
       <c r="B47" s="73" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C47" s="73" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D47" s="73"/>
       <c r="E47" s="74"/>
@@ -40812,10 +40803,10 @@
         <v>111</v>
       </c>
       <c r="B48" s="73" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C48" s="73" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D48" s="73"/>
       <c r="E48" s="74"/>
@@ -40846,10 +40837,10 @@
         <v>111</v>
       </c>
       <c r="B49" s="73" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C49" s="73" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D49" s="73"/>
       <c r="E49" s="74"/>
@@ -40880,10 +40871,10 @@
         <v>111</v>
       </c>
       <c r="B50" s="73" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C50" s="73" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D50" s="73"/>
       <c r="E50" s="74"/>
@@ -40914,10 +40905,10 @@
         <v>111</v>
       </c>
       <c r="B51" s="73" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C51" s="73" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D51" s="73"/>
       <c r="E51" s="74"/>
@@ -40948,10 +40939,10 @@
         <v>111</v>
       </c>
       <c r="B52" s="73" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C52" s="73" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D52" s="73"/>
       <c r="E52" s="74"/>
@@ -40982,10 +40973,10 @@
         <v>111</v>
       </c>
       <c r="B53" s="73" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C53" s="73" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D53" s="73"/>
       <c r="E53" s="74"/>
@@ -41016,10 +41007,10 @@
         <v>111</v>
       </c>
       <c r="B54" s="73" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C54" s="73" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D54" s="73"/>
       <c r="E54" s="74"/>
@@ -41050,10 +41041,10 @@
         <v>111</v>
       </c>
       <c r="B55" s="73" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C55" s="73" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D55" s="73"/>
       <c r="E55" s="74"/>
@@ -41084,10 +41075,10 @@
         <v>111</v>
       </c>
       <c r="B56" s="73" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C56" s="73" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D56" s="73"/>
       <c r="E56" s="74"/>
@@ -41118,10 +41109,10 @@
         <v>111</v>
       </c>
       <c r="B57" s="73" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C57" s="73" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D57" s="73"/>
       <c r="E57" s="74"/>
@@ -41152,10 +41143,10 @@
         <v>111</v>
       </c>
       <c r="B58" s="73" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C58" s="73" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D58" s="73"/>
       <c r="E58" s="74"/>
@@ -41186,10 +41177,10 @@
         <v>111</v>
       </c>
       <c r="B59" s="73" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C59" s="73" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D59" s="73"/>
       <c r="E59" s="74"/>
@@ -41242,10 +41233,10 @@
         <v>131</v>
       </c>
       <c r="B61" s="76" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C61" s="76" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D61" s="46"/>
       <c r="E61" s="46"/>
@@ -41271,10 +41262,10 @@
         <v>131</v>
       </c>
       <c r="B62" s="76" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C62" s="76" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D62" s="46"/>
       <c r="E62" s="46"/>
@@ -41300,10 +41291,10 @@
         <v>131</v>
       </c>
       <c r="B63" s="76" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C63" s="76" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D63" s="46"/>
       <c r="E63" s="46"/>
@@ -41329,10 +41320,10 @@
         <v>131</v>
       </c>
       <c r="B64" s="76" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C64" s="76" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D64" s="46"/>
       <c r="E64" s="46"/>
@@ -41358,10 +41349,10 @@
         <v>131</v>
       </c>
       <c r="B65" s="76" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C65" s="76" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D65" s="46"/>
       <c r="E65" s="46"/>
@@ -41387,10 +41378,10 @@
         <v>131</v>
       </c>
       <c r="B66" s="76" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C66" s="76" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D66" s="46"/>
       <c r="E66" s="46"/>
@@ -41416,10 +41407,10 @@
         <v>131</v>
       </c>
       <c r="B67" s="76" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C67" s="76" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D67" s="46"/>
       <c r="E67" s="46"/>
@@ -41445,10 +41436,10 @@
         <v>131</v>
       </c>
       <c r="B68" s="76" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C68" s="76" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D68" s="46"/>
       <c r="E68" s="46"/>
@@ -41474,10 +41465,10 @@
         <v>131</v>
       </c>
       <c r="B69" s="76" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C69" s="76" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D69" s="46"/>
       <c r="E69" s="46"/>
@@ -41503,10 +41494,10 @@
         <v>131</v>
       </c>
       <c r="B70" s="76" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C70" s="76" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D70" s="46"/>
       <c r="E70" s="46"/>
@@ -41555,10 +41546,10 @@
         <v>121</v>
       </c>
       <c r="B72" s="78" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C72" s="78" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D72" s="46"/>
       <c r="E72" s="46"/>
@@ -41584,10 +41575,10 @@
         <v>121</v>
       </c>
       <c r="B73" s="78" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C73" s="78" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D73" s="46"/>
       <c r="E73" s="46"/>
@@ -41613,10 +41604,10 @@
         <v>121</v>
       </c>
       <c r="B74" s="78" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C74" s="78" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D74" s="46"/>
       <c r="E74" s="46"/>
@@ -41642,10 +41633,10 @@
         <v>121</v>
       </c>
       <c r="B75" s="78" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C75" s="78" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D75" s="46"/>
       <c r="E75" s="46"/>
@@ -41671,10 +41662,10 @@
         <v>121</v>
       </c>
       <c r="B76" s="78" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C76" s="78" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D76" s="46"/>
       <c r="E76" s="46"/>
@@ -41700,10 +41691,10 @@
         <v>121</v>
       </c>
       <c r="B77" s="78" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C77" s="78" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D77" s="46"/>
       <c r="E77" s="46"/>
@@ -41752,10 +41743,10 @@
         <v>190</v>
       </c>
       <c r="B79" s="80" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C79" s="80" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D79" s="46"/>
       <c r="E79" s="46"/>
@@ -41781,10 +41772,10 @@
         <v>190</v>
       </c>
       <c r="B80" s="80" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C80" s="80" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D80" s="46"/>
       <c r="E80" s="46"/>
@@ -41810,10 +41801,10 @@
         <v>190</v>
       </c>
       <c r="B81" s="80" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C81" s="80" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D81" s="46"/>
       <c r="E81" s="46"/>
@@ -41839,10 +41830,10 @@
         <v>190</v>
       </c>
       <c r="B82" s="80" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C82" s="80" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D82" s="46"/>
       <c r="E82" s="46"/>
@@ -41868,10 +41859,10 @@
         <v>190</v>
       </c>
       <c r="B83" s="80" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C83" s="80" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D83" s="46"/>
       <c r="E83" s="46"/>
@@ -49212,25 +49203,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="81" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="81" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="G1" s="82" t="s">
         <v>334</v>
-      </c>
-      <c r="C1" s="81" t="s">
-        <v>335</v>
-      </c>
-      <c r="D1" s="81" t="s">
-        <v>336</v>
-      </c>
-      <c r="E1" s="81" t="s">
-        <v>337</v>
-      </c>
-      <c r="F1" s="81" t="s">
-        <v>338</v>
-      </c>
-      <c r="G1" s="82" t="s">
-        <v>339</v>
       </c>
       <c r="H1" s="81"/>
       <c r="I1" s="81"/>
@@ -49254,24 +49245,24 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="83" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C2" s="84">
         <f>NOW()</f>
-        <v>45127.08271</v>
+        <v>45137.99073</v>
       </c>
       <c r="D2" s="85" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E2" s="85" t="s">
         <v>217</v>
       </c>
       <c r="F2" s="68"/>
       <c r="G2" s="86" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
@@ -50361,1078 +50352,1078 @@
       <c r="W1" s="68"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="C3" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="C3" s="69" t="s">
-        <v>239</v>
-      </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="70" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="70" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="70" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="70" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" s="70" t="s">
         <v>345</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C7" s="70" t="s">
         <v>346</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="69" t="s">
-        <v>344</v>
-      </c>
-      <c r="B6" s="69" t="s">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="70" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="70" t="s">
         <v>347</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C8" s="70" t="s">
         <v>348</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="69" t="s">
-        <v>344</v>
-      </c>
-      <c r="B7" s="69" t="s">
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="70" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" s="70" t="s">
         <v>349</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C9" s="70" t="s">
         <v>350</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="69" t="s">
-        <v>344</v>
-      </c>
-      <c r="B8" s="69" t="s">
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="70" t="s">
         <v>351</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="B11" s="70" t="s">
         <v>352</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="69" t="s">
-        <v>344</v>
-      </c>
-      <c r="B9" s="69" t="s">
+      <c r="C11" s="70" t="s">
         <v>353</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="70" t="s">
+        <v>351</v>
+      </c>
+      <c r="B12" s="70" t="s">
         <v>354</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="69" t="s">
+      <c r="C12" s="70" t="s">
         <v>355</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="70" t="s">
+        <v>351</v>
+      </c>
+      <c r="B13" s="70" t="s">
         <v>356</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C13" s="70" t="s">
         <v>357</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="69"/>
-      <c r="W11" s="69"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="69" t="s">
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="70" t="s">
+        <v>351</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>358</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>359</v>
+      </c>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="70" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>360</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>361</v>
+      </c>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="70" t="s">
+        <v>351</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>362</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>363</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="70"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="70" t="s">
+        <v>364</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>352</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>353</v>
+      </c>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="70" t="s">
+        <v>364</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>354</v>
+      </c>
+      <c r="C19" s="70" t="s">
         <v>355</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="70" t="s">
+        <v>364</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>356</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>357</v>
+      </c>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="70"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="70" t="s">
+        <v>364</v>
+      </c>
+      <c r="B21" s="70" t="s">
         <v>358</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C21" s="70" t="s">
         <v>359</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="69" t="s">
-        <v>355</v>
-      </c>
-      <c r="B13" s="69" t="s">
-        <v>360</v>
-      </c>
-      <c r="C13" s="69" t="s">
-        <v>361</v>
-      </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="69" t="s">
-        <v>355</v>
-      </c>
-      <c r="B14" s="69" t="s">
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="70" t="s">
+        <v>364</v>
+      </c>
+      <c r="B22" s="70" t="s">
         <v>362</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C22" s="70" t="s">
         <v>363</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="69" t="s">
-        <v>355</v>
-      </c>
-      <c r="B15" s="69" t="s">
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="70" t="s">
         <v>364</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="B23" s="70" t="s">
         <v>365</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="69" t="s">
-        <v>355</v>
-      </c>
-      <c r="B16" s="69" t="s">
+      <c r="C23" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="70"/>
+      <c r="W23" s="70"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="70"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="70" t="s">
         <v>367</v>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="69"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="69" t="s">
+      <c r="B25" s="70" t="s">
         <v>368</v>
       </c>
-      <c r="B18" s="69" t="s">
-        <v>356</v>
-      </c>
-      <c r="C18" s="69" t="s">
-        <v>357</v>
-      </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="69" t="s">
-        <v>368</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>358</v>
-      </c>
-      <c r="C19" s="69" t="s">
-        <v>359</v>
-      </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="69" t="s">
-        <v>368</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>360</v>
-      </c>
-      <c r="C20" s="69" t="s">
-        <v>361</v>
-      </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="69" t="s">
-        <v>368</v>
-      </c>
-      <c r="B21" s="69" t="s">
-        <v>362</v>
-      </c>
-      <c r="C21" s="69" t="s">
-        <v>363</v>
-      </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="69" t="s">
-        <v>368</v>
-      </c>
-      <c r="B22" s="69" t="s">
-        <v>366</v>
-      </c>
-      <c r="C22" s="69" t="s">
+      <c r="C25" s="70" t="s">
+        <v>369</v>
+      </c>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="70"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="70" t="s">
         <v>367</v>
       </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="69" t="s">
-        <v>368</v>
-      </c>
-      <c r="B23" s="69" t="s">
-        <v>369</v>
-      </c>
-      <c r="C23" s="69" t="s">
+      <c r="B26" s="70" t="s">
         <v>370</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="69"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="69"/>
-      <c r="W23" s="69"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="69"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="69" t="s">
+      <c r="C26" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="70"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="70" t="s">
+        <v>367</v>
+      </c>
+      <c r="B27" s="70" t="s">
         <v>372</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C27" s="70" t="s">
         <v>373</v>
       </c>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="69" t="s">
-        <v>371</v>
-      </c>
-      <c r="B26" s="69" t="s">
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="70"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="70" t="s">
+        <v>367</v>
+      </c>
+      <c r="B28" s="70" t="s">
         <v>374</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C28" s="70" t="s">
         <v>375</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="69" t="s">
-        <v>371</v>
-      </c>
-      <c r="B27" s="69" t="s">
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="70"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="70"/>
+      <c r="W28" s="70"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="70" t="s">
+        <v>367</v>
+      </c>
+      <c r="B29" s="70" t="s">
         <v>376</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C29" s="70" t="s">
+        <v>244</v>
+      </c>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="70"/>
+      <c r="U29" s="70"/>
+      <c r="V29" s="70"/>
+      <c r="W29" s="70"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="70"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="70"/>
+      <c r="T30" s="70"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="70"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="70" t="s">
         <v>377</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="69" t="s">
-        <v>371</v>
-      </c>
-      <c r="B28" s="69" t="s">
+      <c r="B31" s="70" t="s">
         <v>378</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C31" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="70"/>
+      <c r="R31" s="70"/>
+      <c r="S31" s="70"/>
+      <c r="T31" s="70"/>
+      <c r="U31" s="70"/>
+      <c r="V31" s="70"/>
+      <c r="W31" s="70"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="70" t="s">
+        <v>377</v>
+      </c>
+      <c r="B32" s="70" t="s">
         <v>379</v>
       </c>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69"/>
-      <c r="T28" s="69"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="69"/>
-      <c r="W28" s="69"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="69" t="s">
-        <v>371</v>
-      </c>
-      <c r="B29" s="69" t="s">
-        <v>248</v>
-      </c>
-      <c r="C29" s="69" t="s">
-        <v>249</v>
-      </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="69"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="69"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="69"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="69"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="69"/>
-      <c r="W30" s="69"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="69" t="s">
-        <v>380</v>
-      </c>
-      <c r="B31" s="69" t="s">
-        <v>381</v>
-      </c>
-      <c r="C31" s="69" t="s">
-        <v>237</v>
-      </c>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="69"/>
-      <c r="T31" s="69"/>
-      <c r="U31" s="69"/>
-      <c r="V31" s="69"/>
-      <c r="W31" s="69"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="69" t="s">
-        <v>380</v>
-      </c>
-      <c r="B32" s="69" t="s">
-        <v>382</v>
-      </c>
-      <c r="C32" s="69" t="s">
-        <v>239</v>
-      </c>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="69"/>
-      <c r="S32" s="69"/>
-      <c r="T32" s="69"/>
-      <c r="U32" s="69"/>
-      <c r="V32" s="69"/>
-      <c r="W32" s="69"/>
+      <c r="C32" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="70"/>
+      <c r="Q32" s="70"/>
+      <c r="R32" s="70"/>
+      <c r="S32" s="70"/>
+      <c r="T32" s="70"/>
+      <c r="U32" s="70"/>
+      <c r="V32" s="70"/>
+      <c r="W32" s="70"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="69"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="69"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="69"/>
-      <c r="W33" s="69"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="70"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="70"/>
+      <c r="U33" s="70"/>
+      <c r="V33" s="70"/>
+      <c r="W33" s="70"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="94" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B34" s="94" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" s="94" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="94" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B35" s="94" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" s="94" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="94" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B36" s="94" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" s="94" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="94" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B37" s="94" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" s="94" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="94" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B38" s="94" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" s="94" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="94" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B39" s="94" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" s="94" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="94" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B40" s="94" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" s="94" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="94" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B41" s="94" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" s="94" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="94" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B42" s="94" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" s="94" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="94" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B43" s="94" t="s">
-        <v>248</v>
+        <v>376</v>
       </c>
       <c r="C43" s="94" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -51443,26 +51434,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="94" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B45" s="94" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" s="94" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="94" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B46" s="94" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" s="94" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -51473,13 +51464,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="85" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B48" s="85" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C48" s="85" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D48" s="85"/>
       <c r="E48" s="85"/>
@@ -51504,13 +51495,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="85" t="s">
+        <v>393</v>
+      </c>
+      <c r="B49" s="85" t="s">
         <v>396</v>
       </c>
-      <c r="B49" s="85" t="s">
-        <v>399</v>
-      </c>
       <c r="C49" s="85" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D49" s="85"/>
       <c r="E49" s="85"/>
@@ -51536,226 +51527,226 @@
     <row r="50" ht="12.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="94" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B51" s="94" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C51" s="94" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="94" t="s">
+        <v>398</v>
+      </c>
+      <c r="B52" s="94" t="s">
         <v>401</v>
       </c>
-      <c r="B52" s="94" t="s">
-        <v>404</v>
-      </c>
       <c r="C52" s="94" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="94" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B53" s="94" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C53" s="94" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="94" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B54" s="94" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C54" s="94" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="94" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B55" s="94" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C55" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="94" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B56" s="94" t="s">
-        <v>248</v>
+        <v>376</v>
       </c>
       <c r="C56" s="94" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="85" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B58" s="85" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C58" s="85" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="85" t="s">
+        <v>409</v>
+      </c>
+      <c r="B59" s="85" t="s">
         <v>412</v>
       </c>
-      <c r="B59" s="85" t="s">
-        <v>415</v>
-      </c>
       <c r="C59" s="85" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="85" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B60" s="85" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C60" s="85" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="85" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B61" s="85" t="s">
-        <v>248</v>
+        <v>376</v>
       </c>
       <c r="C61" s="85" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="68" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B63" s="68" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C63" s="85" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="68" t="s">
+        <v>416</v>
+      </c>
+      <c r="B64" s="68" t="s">
         <v>419</v>
       </c>
-      <c r="B64" s="68" t="s">
-        <v>422</v>
-      </c>
       <c r="C64" s="85" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="68" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B65" s="68" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C65" s="85" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="68" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B66" s="68" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C66" s="85" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="68" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B67" s="68" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C67" s="85" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="94" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B69" s="94" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C69" s="94" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="94" t="s">
+        <v>427</v>
+      </c>
+      <c r="B70" s="94" t="s">
         <v>430</v>
       </c>
-      <c r="B70" s="94" t="s">
-        <v>433</v>
-      </c>
       <c r="C70" s="94" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="94" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B72" s="94" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C72" s="95" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="94" t="s">
+        <v>432</v>
+      </c>
+      <c r="B73" s="94" t="s">
+        <v>434</v>
+      </c>
+      <c r="C73" s="94" t="s">
         <v>435</v>
-      </c>
-      <c r="B73" s="94" t="s">
-        <v>437</v>
-      </c>
-      <c r="C73" s="94" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="94" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B74" s="94" t="s">
-        <v>248</v>
+        <v>376</v>
       </c>
       <c r="C74" s="94" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/cht_app/forms/app/padr.xlsx
+++ b/cht_app/forms/app/padr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="437">
   <si>
     <t>type</t>
   </si>
@@ -658,6 +658,15 @@
   </si>
   <si>
     <t>h1 green</t>
+  </si>
+  <si>
+    <t>r_absent</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Revisit ${patient_display_name} in the next 5 days&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>selected(${available},'No')</t>
   </si>
   <si>
     <t>data</t>
@@ -5036,9 +5045,7 @@
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
-      <c r="J56" s="28" t="s">
-        <v>93</v>
-      </c>
+      <c r="J56" s="28"/>
       <c r="K56" s="38"/>
       <c r="L56" s="22"/>
       <c r="M56" s="28"/>
@@ -5248,9 +5255,7 @@
       <c r="G60" s="28"/>
       <c r="H60" s="28"/>
       <c r="I60" s="28"/>
-      <c r="J60" s="28" t="s">
-        <v>93</v>
-      </c>
+      <c r="J60" s="28"/>
       <c r="K60" s="38"/>
       <c r="L60" s="22"/>
       <c r="M60" s="28"/>
@@ -7541,7 +7546,9 @@
       <c r="H103" s="51"/>
       <c r="I103" s="51"/>
       <c r="J103" s="51"/>
-      <c r="K103" s="51"/>
+      <c r="K103" s="34" t="s">
+        <v>95</v>
+      </c>
       <c r="L103" s="51"/>
       <c r="M103" s="51"/>
       <c r="N103" s="51"/>
@@ -7794,91 +7801,101 @@
       <c r="AQ107" s="52"/>
       <c r="AR107" s="52"/>
     </row>
-    <row r="108" ht="12.75" customHeight="1">
-      <c r="A108" s="57" t="s">
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="B108" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="C108" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="D108" s="51"/>
+      <c r="E108" s="51"/>
+      <c r="F108" s="51"/>
+      <c r="G108" s="51"/>
+      <c r="H108" s="51"/>
+      <c r="I108" s="51"/>
+      <c r="J108" s="51"/>
+      <c r="K108" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="L108" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="M108" s="51"/>
+      <c r="N108" s="51"/>
+      <c r="O108" s="51"/>
+      <c r="P108" s="51"/>
+      <c r="Q108" s="51"/>
+      <c r="R108" s="51"/>
+      <c r="S108" s="51"/>
+      <c r="T108" s="51"/>
+      <c r="U108" s="51"/>
+      <c r="V108" s="51"/>
+      <c r="W108" s="51"/>
+      <c r="X108" s="51"/>
+      <c r="Y108" s="51"/>
+      <c r="Z108" s="51"/>
+      <c r="AA108" s="51"/>
+      <c r="AB108" s="51"/>
+      <c r="AC108" s="51"/>
+      <c r="AD108" s="51"/>
+      <c r="AE108" s="51"/>
+      <c r="AF108" s="51"/>
+      <c r="AG108" s="51"/>
+      <c r="AH108" s="51"/>
+      <c r="AI108" s="51"/>
+      <c r="AJ108" s="51"/>
+      <c r="AK108" s="52"/>
+      <c r="AL108" s="52"/>
+      <c r="AM108" s="52"/>
+      <c r="AN108" s="52"/>
+      <c r="AO108" s="52"/>
+      <c r="AP108" s="52"/>
+      <c r="AQ108" s="52"/>
+      <c r="AR108" s="52"/>
+    </row>
+    <row r="109" ht="12.75" customHeight="1">
+      <c r="A109" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B108" s="57"/>
-      <c r="C108" s="58"/>
-      <c r="D108" s="58"/>
-      <c r="E108" s="58"/>
-      <c r="F108" s="58"/>
-      <c r="G108" s="58"/>
-      <c r="H108" s="58"/>
-      <c r="I108" s="58"/>
-      <c r="J108" s="58"/>
-      <c r="K108" s="58"/>
-      <c r="L108" s="58"/>
-      <c r="M108" s="58"/>
-      <c r="N108" s="58"/>
-      <c r="O108" s="58"/>
-      <c r="P108" s="58"/>
-      <c r="Q108" s="58"/>
-      <c r="R108" s="58"/>
-      <c r="S108" s="58"/>
-      <c r="T108" s="58"/>
-      <c r="U108" s="58"/>
-      <c r="V108" s="58"/>
-      <c r="W108" s="58"/>
-      <c r="X108" s="58"/>
-      <c r="Y108" s="58"/>
-      <c r="Z108" s="58"/>
-      <c r="AA108" s="58"/>
-      <c r="AB108" s="58"/>
-      <c r="AC108" s="58"/>
-      <c r="AD108" s="58"/>
-      <c r="AE108" s="58"/>
-      <c r="AF108" s="58"/>
-      <c r="AG108" s="58"/>
-      <c r="AH108" s="58"/>
-      <c r="AI108" s="58"/>
-      <c r="AJ108" s="58"/>
-      <c r="AK108" s="43"/>
-      <c r="AL108" s="43"/>
-      <c r="AM108" s="43"/>
-      <c r="AN108" s="43"/>
-      <c r="AO108" s="43"/>
-      <c r="AP108" s="43"/>
-      <c r="AQ108" s="43"/>
-      <c r="AR108" s="43"/>
-    </row>
-    <row r="109" ht="12.75" customHeight="1">
-      <c r="A109" s="43"/>
-      <c r="B109" s="43"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="43"/>
-      <c r="E109" s="43"/>
-      <c r="F109" s="43"/>
-      <c r="G109" s="43"/>
-      <c r="H109" s="43"/>
-      <c r="I109" s="43"/>
-      <c r="J109" s="43"/>
-      <c r="K109" s="43"/>
-      <c r="L109" s="43"/>
-      <c r="M109" s="43"/>
-      <c r="N109" s="43"/>
-      <c r="O109" s="43"/>
-      <c r="P109" s="43"/>
-      <c r="Q109" s="43"/>
-      <c r="R109" s="43"/>
-      <c r="S109" s="43"/>
-      <c r="T109" s="43"/>
-      <c r="U109" s="43"/>
-      <c r="V109" s="43"/>
-      <c r="W109" s="43"/>
-      <c r="X109" s="43"/>
-      <c r="Y109" s="43"/>
-      <c r="Z109" s="43"/>
-      <c r="AA109" s="43"/>
-      <c r="AB109" s="43"/>
-      <c r="AC109" s="43"/>
-      <c r="AD109" s="43"/>
-      <c r="AE109" s="43"/>
-      <c r="AF109" s="43"/>
-      <c r="AG109" s="43"/>
-      <c r="AH109" s="43"/>
-      <c r="AI109" s="43"/>
-      <c r="AJ109" s="43"/>
+      <c r="B109" s="57"/>
+      <c r="C109" s="58"/>
+      <c r="D109" s="58"/>
+      <c r="E109" s="58"/>
+      <c r="F109" s="58"/>
+      <c r="G109" s="58"/>
+      <c r="H109" s="58"/>
+      <c r="I109" s="58"/>
+      <c r="J109" s="58"/>
+      <c r="K109" s="58"/>
+      <c r="L109" s="58"/>
+      <c r="M109" s="58"/>
+      <c r="N109" s="58"/>
+      <c r="O109" s="58"/>
+      <c r="P109" s="58"/>
+      <c r="Q109" s="58"/>
+      <c r="R109" s="58"/>
+      <c r="S109" s="58"/>
+      <c r="T109" s="58"/>
+      <c r="U109" s="58"/>
+      <c r="V109" s="58"/>
+      <c r="W109" s="58"/>
+      <c r="X109" s="58"/>
+      <c r="Y109" s="58"/>
+      <c r="Z109" s="58"/>
+      <c r="AA109" s="58"/>
+      <c r="AB109" s="58"/>
+      <c r="AC109" s="58"/>
+      <c r="AD109" s="58"/>
+      <c r="AE109" s="58"/>
+      <c r="AF109" s="58"/>
+      <c r="AG109" s="58"/>
+      <c r="AH109" s="58"/>
+      <c r="AI109" s="58"/>
+      <c r="AJ109" s="58"/>
       <c r="AK109" s="43"/>
       <c r="AL109" s="43"/>
       <c r="AM109" s="43"/>
@@ -7889,52 +7906,42 @@
       <c r="AR109" s="43"/>
     </row>
     <row r="110" ht="12.75" customHeight="1">
-      <c r="A110" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B110" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="C110" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="D110" s="60"/>
-      <c r="E110" s="60"/>
-      <c r="F110" s="60"/>
-      <c r="G110" s="60"/>
-      <c r="H110" s="60"/>
-      <c r="I110" s="60"/>
-      <c r="J110" s="60"/>
-      <c r="K110" s="60"/>
-      <c r="L110" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="M110" s="60"/>
-      <c r="N110" s="60"/>
-      <c r="O110" s="60"/>
-      <c r="P110" s="60"/>
-      <c r="Q110" s="60"/>
-      <c r="R110" s="60"/>
-      <c r="S110" s="60"/>
-      <c r="T110" s="60"/>
-      <c r="U110" s="60"/>
-      <c r="V110" s="60"/>
-      <c r="W110" s="60"/>
-      <c r="X110" s="60"/>
-      <c r="Y110" s="60"/>
-      <c r="Z110" s="60"/>
-      <c r="AA110" s="60"/>
-      <c r="AB110" s="60"/>
-      <c r="AC110" s="60"/>
-      <c r="AD110" s="60"/>
-      <c r="AE110" s="60"/>
-      <c r="AF110" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG110" s="60"/>
-      <c r="AH110" s="60"/>
-      <c r="AI110" s="60"/>
-      <c r="AJ110" s="60"/>
+      <c r="A110" s="43"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="43"/>
+      <c r="F110" s="43"/>
+      <c r="G110" s="43"/>
+      <c r="H110" s="43"/>
+      <c r="I110" s="43"/>
+      <c r="J110" s="43"/>
+      <c r="K110" s="43"/>
+      <c r="L110" s="43"/>
+      <c r="M110" s="43"/>
+      <c r="N110" s="43"/>
+      <c r="O110" s="43"/>
+      <c r="P110" s="43"/>
+      <c r="Q110" s="43"/>
+      <c r="R110" s="43"/>
+      <c r="S110" s="43"/>
+      <c r="T110" s="43"/>
+      <c r="U110" s="43"/>
+      <c r="V110" s="43"/>
+      <c r="W110" s="43"/>
+      <c r="X110" s="43"/>
+      <c r="Y110" s="43"/>
+      <c r="Z110" s="43"/>
+      <c r="AA110" s="43"/>
+      <c r="AB110" s="43"/>
+      <c r="AC110" s="43"/>
+      <c r="AD110" s="43"/>
+      <c r="AE110" s="43"/>
+      <c r="AF110" s="43"/>
+      <c r="AG110" s="43"/>
+      <c r="AH110" s="43"/>
+      <c r="AI110" s="43"/>
+      <c r="AJ110" s="43"/>
       <c r="AK110" s="43"/>
       <c r="AL110" s="43"/>
       <c r="AM110" s="43"/>
@@ -7946,10 +7953,10 @@
     </row>
     <row r="111" ht="12.75" customHeight="1">
       <c r="A111" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="B111" s="61" t="s">
-        <v>214</v>
+        <v>34</v>
+      </c>
+      <c r="B111" s="59" t="s">
+        <v>216</v>
       </c>
       <c r="C111" s="60" t="s">
         <v>36</v>
@@ -7962,7 +7969,9 @@
       <c r="I111" s="60"/>
       <c r="J111" s="60"/>
       <c r="K111" s="60"/>
-      <c r="L111" s="60"/>
+      <c r="L111" s="60" t="s">
+        <v>39</v>
+      </c>
       <c r="M111" s="60"/>
       <c r="N111" s="60"/>
       <c r="O111" s="60"/>
@@ -7971,9 +7980,7 @@
       <c r="R111" s="60"/>
       <c r="S111" s="60"/>
       <c r="T111" s="60"/>
-      <c r="U111" s="62" t="s">
-        <v>215</v>
-      </c>
+      <c r="U111" s="60"/>
       <c r="V111" s="60"/>
       <c r="W111" s="60"/>
       <c r="X111" s="60"/>
@@ -7984,10 +7991,10 @@
       <c r="AC111" s="60"/>
       <c r="AD111" s="60"/>
       <c r="AE111" s="60"/>
-      <c r="AF111" s="60"/>
-      <c r="AG111" s="60" t="s">
-        <v>216</v>
-      </c>
+      <c r="AF111" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG111" s="60"/>
       <c r="AH111" s="60"/>
       <c r="AI111" s="60"/>
       <c r="AJ111" s="60"/>
@@ -8001,10 +8008,10 @@
       <c r="AR111" s="43"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
-      <c r="A112" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="B112" s="63" t="s">
+      <c r="A112" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B112" s="61" t="s">
         <v>217</v>
       </c>
       <c r="C112" s="60" t="s">
@@ -8027,7 +8034,9 @@
       <c r="R112" s="60"/>
       <c r="S112" s="60"/>
       <c r="T112" s="60"/>
-      <c r="U112" s="60"/>
+      <c r="U112" s="62" t="s">
+        <v>218</v>
+      </c>
       <c r="V112" s="60"/>
       <c r="W112" s="60"/>
       <c r="X112" s="60"/>
@@ -8039,25 +8048,27 @@
       <c r="AD112" s="60"/>
       <c r="AE112" s="60"/>
       <c r="AF112" s="60"/>
-      <c r="AG112" s="60"/>
+      <c r="AG112" s="60" t="s">
+        <v>219</v>
+      </c>
       <c r="AH112" s="60"/>
       <c r="AI112" s="60"/>
       <c r="AJ112" s="60"/>
-      <c r="AK112" s="60"/>
-      <c r="AL112" s="60"/>
-      <c r="AM112" s="60"/>
-      <c r="AN112" s="60"/>
-      <c r="AO112" s="60"/>
-      <c r="AP112" s="60"/>
-      <c r="AQ112" s="60"/>
-      <c r="AR112" s="60"/>
+      <c r="AK112" s="43"/>
+      <c r="AL112" s="43"/>
+      <c r="AM112" s="43"/>
+      <c r="AN112" s="43"/>
+      <c r="AO112" s="43"/>
+      <c r="AP112" s="43"/>
+      <c r="AQ112" s="43"/>
+      <c r="AR112" s="43"/>
     </row>
     <row r="113" ht="12.75" customHeight="1">
-      <c r="A113" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="B113" s="59" t="s">
-        <v>218</v>
+      <c r="A113" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B113" s="63" t="s">
+        <v>220</v>
       </c>
       <c r="C113" s="60" t="s">
         <v>36</v>
@@ -8079,9 +8090,7 @@
       <c r="R113" s="60"/>
       <c r="S113" s="60"/>
       <c r="T113" s="60"/>
-      <c r="U113" s="60" t="s">
-        <v>219</v>
-      </c>
+      <c r="U113" s="60"/>
       <c r="V113" s="60"/>
       <c r="W113" s="60"/>
       <c r="X113" s="60"/>
@@ -8093,9 +8102,7 @@
       <c r="AD113" s="60"/>
       <c r="AE113" s="60"/>
       <c r="AF113" s="60"/>
-      <c r="AG113" s="60" t="s">
-        <v>220</v>
-      </c>
+      <c r="AG113" s="60"/>
       <c r="AH113" s="60"/>
       <c r="AI113" s="60"/>
       <c r="AJ113" s="60"/>
@@ -8150,7 +8157,7 @@
       <c r="AE114" s="60"/>
       <c r="AF114" s="60"/>
       <c r="AG114" s="60" t="s">
-        <v>62</v>
+        <v>223</v>
       </c>
       <c r="AH114" s="60"/>
       <c r="AI114" s="60"/>
@@ -8169,7 +8176,7 @@
         <v>71</v>
       </c>
       <c r="B115" s="59" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C115" s="60" t="s">
         <v>36</v>
@@ -8192,7 +8199,7 @@
       <c r="S115" s="60"/>
       <c r="T115" s="60"/>
       <c r="U115" s="60" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="V115" s="60"/>
       <c r="W115" s="60"/>
@@ -8206,7 +8213,7 @@
       <c r="AE115" s="60"/>
       <c r="AF115" s="60"/>
       <c r="AG115" s="60" t="s">
-        <v>225</v>
+        <v>62</v>
       </c>
       <c r="AH115" s="60"/>
       <c r="AI115" s="60"/>
@@ -8262,7 +8269,7 @@
       <c r="AE116" s="60"/>
       <c r="AF116" s="60"/>
       <c r="AG116" s="60" t="s">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="AH116" s="60"/>
       <c r="AI116" s="60"/>
@@ -8281,7 +8288,7 @@
         <v>71</v>
       </c>
       <c r="B117" s="59" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C117" s="60" t="s">
         <v>36</v>
@@ -8304,7 +8311,7 @@
       <c r="S117" s="60"/>
       <c r="T117" s="60"/>
       <c r="U117" s="60" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="V117" s="60"/>
       <c r="W117" s="60"/>
@@ -8318,7 +8325,7 @@
       <c r="AE117" s="60"/>
       <c r="AF117" s="60"/>
       <c r="AG117" s="60" t="s">
-        <v>230</v>
+        <v>41</v>
       </c>
       <c r="AH117" s="60"/>
       <c r="AI117" s="60"/>
@@ -8333,13 +8340,15 @@
       <c r="AR117" s="60"/>
     </row>
     <row r="118" ht="12.75" customHeight="1">
-      <c r="A118" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="B118" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="C118" s="60"/>
+      <c r="A118" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B118" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="C118" s="60" t="s">
+        <v>36</v>
+      </c>
       <c r="D118" s="60"/>
       <c r="E118" s="60"/>
       <c r="F118" s="60"/>
@@ -8357,7 +8366,9 @@
       <c r="R118" s="60"/>
       <c r="S118" s="60"/>
       <c r="T118" s="60"/>
-      <c r="U118" s="60"/>
+      <c r="U118" s="60" t="s">
+        <v>232</v>
+      </c>
       <c r="V118" s="60"/>
       <c r="W118" s="60"/>
       <c r="X118" s="60"/>
@@ -8369,7 +8380,9 @@
       <c r="AD118" s="60"/>
       <c r="AE118" s="60"/>
       <c r="AF118" s="60"/>
-      <c r="AG118" s="60"/>
+      <c r="AG118" s="60" t="s">
+        <v>233</v>
+      </c>
       <c r="AH118" s="60"/>
       <c r="AI118" s="60"/>
       <c r="AJ118" s="60"/>
@@ -8387,7 +8400,7 @@
         <v>53</v>
       </c>
       <c r="B119" s="63" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C119" s="60"/>
       <c r="D119" s="60"/>
@@ -8433,8 +8446,12 @@
       <c r="AR119" s="60"/>
     </row>
     <row r="120" ht="12.75" customHeight="1">
-      <c r="A120" s="59"/>
-      <c r="B120" s="59"/>
+      <c r="A120" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B120" s="63" t="s">
+        <v>216</v>
+      </c>
       <c r="C120" s="60"/>
       <c r="D120" s="60"/>
       <c r="E120" s="60"/>
@@ -8479,50 +8496,50 @@
       <c r="AR120" s="60"/>
     </row>
     <row r="121" ht="12.75" customHeight="1">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="7"/>
-      <c r="L121" s="7"/>
-      <c r="M121" s="7"/>
-      <c r="N121" s="7"/>
-      <c r="O121" s="7"/>
-      <c r="P121" s="7"/>
-      <c r="Q121" s="7"/>
-      <c r="R121" s="7"/>
-      <c r="S121" s="7"/>
-      <c r="T121" s="7"/>
-      <c r="U121" s="7"/>
-      <c r="V121" s="7"/>
-      <c r="W121" s="7"/>
-      <c r="X121" s="7"/>
-      <c r="Y121" s="7"/>
-      <c r="Z121" s="7"/>
-      <c r="AA121" s="7"/>
-      <c r="AB121" s="7"/>
-      <c r="AC121" s="7"/>
-      <c r="AD121" s="7"/>
-      <c r="AE121" s="7"/>
-      <c r="AF121" s="7"/>
-      <c r="AG121" s="7"/>
-      <c r="AH121" s="7"/>
-      <c r="AI121" s="7"/>
-      <c r="AJ121" s="7"/>
-      <c r="AK121" s="7"/>
-      <c r="AL121" s="7"/>
-      <c r="AM121" s="7"/>
-      <c r="AN121" s="7"/>
-      <c r="AO121" s="7"/>
-      <c r="AP121" s="7"/>
-      <c r="AQ121" s="7"/>
-      <c r="AR121" s="7"/>
+      <c r="A121" s="59"/>
+      <c r="B121" s="59"/>
+      <c r="C121" s="60"/>
+      <c r="D121" s="60"/>
+      <c r="E121" s="60"/>
+      <c r="F121" s="60"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
+      <c r="L121" s="60"/>
+      <c r="M121" s="60"/>
+      <c r="N121" s="60"/>
+      <c r="O121" s="60"/>
+      <c r="P121" s="60"/>
+      <c r="Q121" s="60"/>
+      <c r="R121" s="60"/>
+      <c r="S121" s="60"/>
+      <c r="T121" s="60"/>
+      <c r="U121" s="60"/>
+      <c r="V121" s="60"/>
+      <c r="W121" s="60"/>
+      <c r="X121" s="60"/>
+      <c r="Y121" s="60"/>
+      <c r="Z121" s="60"/>
+      <c r="AA121" s="60"/>
+      <c r="AB121" s="60"/>
+      <c r="AC121" s="60"/>
+      <c r="AD121" s="60"/>
+      <c r="AE121" s="60"/>
+      <c r="AF121" s="60"/>
+      <c r="AG121" s="60"/>
+      <c r="AH121" s="60"/>
+      <c r="AI121" s="60"/>
+      <c r="AJ121" s="60"/>
+      <c r="AK121" s="60"/>
+      <c r="AL121" s="60"/>
+      <c r="AM121" s="60"/>
+      <c r="AN121" s="60"/>
+      <c r="AO121" s="60"/>
+      <c r="AP121" s="60"/>
+      <c r="AQ121" s="60"/>
+      <c r="AR121" s="60"/>
     </row>
     <row r="122" ht="12.75" customHeight="1">
       <c r="A122" s="7"/>
@@ -38930,9 +38947,55 @@
       <c r="AQ782" s="7"/>
       <c r="AR782" s="7"/>
     </row>
+    <row r="783" ht="12.75" customHeight="1">
+      <c r="A783" s="7"/>
+      <c r="B783" s="7"/>
+      <c r="C783" s="7"/>
+      <c r="D783" s="7"/>
+      <c r="E783" s="7"/>
+      <c r="F783" s="7"/>
+      <c r="G783" s="7"/>
+      <c r="H783" s="7"/>
+      <c r="I783" s="7"/>
+      <c r="J783" s="7"/>
+      <c r="K783" s="7"/>
+      <c r="L783" s="7"/>
+      <c r="M783" s="7"/>
+      <c r="N783" s="7"/>
+      <c r="O783" s="7"/>
+      <c r="P783" s="7"/>
+      <c r="Q783" s="7"/>
+      <c r="R783" s="7"/>
+      <c r="S783" s="7"/>
+      <c r="T783" s="7"/>
+      <c r="U783" s="7"/>
+      <c r="V783" s="7"/>
+      <c r="W783" s="7"/>
+      <c r="X783" s="7"/>
+      <c r="Y783" s="7"/>
+      <c r="Z783" s="7"/>
+      <c r="AA783" s="7"/>
+      <c r="AB783" s="7"/>
+      <c r="AC783" s="7"/>
+      <c r="AD783" s="7"/>
+      <c r="AE783" s="7"/>
+      <c r="AF783" s="7"/>
+      <c r="AG783" s="7"/>
+      <c r="AH783" s="7"/>
+      <c r="AI783" s="7"/>
+      <c r="AJ783" s="7"/>
+      <c r="AK783" s="7"/>
+      <c r="AL783" s="7"/>
+      <c r="AM783" s="7"/>
+      <c r="AN783" s="7"/>
+      <c r="AO783" s="7"/>
+      <c r="AP783" s="7"/>
+      <c r="AQ783" s="7"/>
+      <c r="AR783" s="7"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J120">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J121">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -38963,7 +39026,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="64" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B1" s="64" t="s">
         <v>1</v>
@@ -38995,13 +39058,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="52" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
@@ -39025,13 +39088,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="52" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
@@ -39082,10 +39145,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D5" s="52"/>
       <c r="E5" s="52"/>
@@ -39112,10 +39175,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C6" s="69" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
@@ -39166,10 +39229,10 @@
         <v>108</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C8" s="67" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
@@ -39195,10 +39258,10 @@
         <v>108</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
@@ -39224,10 +39287,10 @@
         <v>108</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
@@ -39276,10 +39339,10 @@
         <v>111</v>
       </c>
       <c r="B12" s="71" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C12" s="71" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D12" s="71"/>
       <c r="E12" s="72"/>
@@ -39310,10 +39373,10 @@
         <v>111</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D13" s="71"/>
       <c r="E13" s="72"/>
@@ -39344,10 +39407,10 @@
         <v>111</v>
       </c>
       <c r="B14" s="71" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C14" s="71" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D14" s="71"/>
       <c r="E14" s="72"/>
@@ -39378,10 +39441,10 @@
         <v>111</v>
       </c>
       <c r="B15" s="71" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C15" s="71" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D15" s="71"/>
       <c r="E15" s="72"/>
@@ -39412,10 +39475,10 @@
         <v>111</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D16" s="71"/>
       <c r="E16" s="72"/>
@@ -39446,10 +39509,10 @@
         <v>111</v>
       </c>
       <c r="B17" s="71" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C17" s="71" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D17" s="71"/>
       <c r="E17" s="72"/>
@@ -39480,10 +39543,10 @@
         <v>111</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C18" s="71" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D18" s="71"/>
       <c r="E18" s="72"/>
@@ -39514,10 +39577,10 @@
         <v>111</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D19" s="71"/>
       <c r="E19" s="72"/>
@@ -39548,10 +39611,10 @@
         <v>111</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C20" s="71" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D20" s="71"/>
       <c r="E20" s="72"/>
@@ -39582,10 +39645,10 @@
         <v>111</v>
       </c>
       <c r="B21" s="71" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D21" s="71"/>
       <c r="E21" s="72"/>
@@ -39616,10 +39679,10 @@
         <v>111</v>
       </c>
       <c r="B22" s="71" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C22" s="71" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D22" s="71"/>
       <c r="E22" s="72"/>
@@ -39650,10 +39713,10 @@
         <v>111</v>
       </c>
       <c r="B23" s="71" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D23" s="71"/>
       <c r="E23" s="72"/>
@@ -39684,10 +39747,10 @@
         <v>111</v>
       </c>
       <c r="B24" s="71" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C24" s="71" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D24" s="71"/>
       <c r="E24" s="72"/>
@@ -39718,10 +39781,10 @@
         <v>111</v>
       </c>
       <c r="B25" s="71" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C25" s="71" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D25" s="71"/>
       <c r="E25" s="72"/>
@@ -39752,10 +39815,10 @@
         <v>111</v>
       </c>
       <c r="B26" s="71" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C26" s="71" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D26" s="71"/>
       <c r="E26" s="72"/>
@@ -39786,10 +39849,10 @@
         <v>111</v>
       </c>
       <c r="B27" s="71" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C27" s="71" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="72"/>
@@ -39820,10 +39883,10 @@
         <v>111</v>
       </c>
       <c r="B28" s="71" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C28" s="71" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D28" s="71"/>
       <c r="E28" s="72"/>
@@ -39854,10 +39917,10 @@
         <v>111</v>
       </c>
       <c r="B29" s="71" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C29" s="71" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D29" s="71"/>
       <c r="E29" s="72"/>
@@ -39888,10 +39951,10 @@
         <v>111</v>
       </c>
       <c r="B30" s="71" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C30" s="71" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D30" s="71"/>
       <c r="E30" s="72"/>
@@ -39922,10 +39985,10 @@
         <v>111</v>
       </c>
       <c r="B31" s="71" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C31" s="71" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D31" s="71"/>
       <c r="E31" s="72"/>
@@ -39956,10 +40019,10 @@
         <v>111</v>
       </c>
       <c r="B32" s="71" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C32" s="71" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D32" s="71"/>
       <c r="E32" s="72"/>
@@ -39990,10 +40053,10 @@
         <v>111</v>
       </c>
       <c r="B33" s="71" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C33" s="71" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D33" s="71"/>
       <c r="E33" s="72"/>
@@ -40024,10 +40087,10 @@
         <v>111</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C34" s="71" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D34" s="71"/>
       <c r="E34" s="72"/>
@@ -40058,10 +40121,10 @@
         <v>111</v>
       </c>
       <c r="B35" s="71" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C35" s="71" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D35" s="71"/>
       <c r="E35" s="72"/>
@@ -40092,10 +40155,10 @@
         <v>111</v>
       </c>
       <c r="B36" s="71" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C36" s="71" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D36" s="71"/>
       <c r="E36" s="72"/>
@@ -40126,10 +40189,10 @@
         <v>111</v>
       </c>
       <c r="B37" s="71" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C37" s="71" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D37" s="71"/>
       <c r="E37" s="72"/>
@@ -40160,10 +40223,10 @@
         <v>111</v>
       </c>
       <c r="B38" s="71" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C38" s="71" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D38" s="71"/>
       <c r="E38" s="72"/>
@@ -40194,10 +40257,10 @@
         <v>111</v>
       </c>
       <c r="B39" s="71" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C39" s="71" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D39" s="71"/>
       <c r="E39" s="72"/>
@@ -40228,10 +40291,10 @@
         <v>111</v>
       </c>
       <c r="B40" s="71" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C40" s="71" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D40" s="71"/>
       <c r="E40" s="72"/>
@@ -40262,10 +40325,10 @@
         <v>111</v>
       </c>
       <c r="B41" s="71" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C41" s="71" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D41" s="71"/>
       <c r="E41" s="72"/>
@@ -40296,10 +40359,10 @@
         <v>111</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C42" s="71" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D42" s="71"/>
       <c r="E42" s="72"/>
@@ -40330,10 +40393,10 @@
         <v>111</v>
       </c>
       <c r="B43" s="71" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C43" s="71" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D43" s="71"/>
       <c r="E43" s="72"/>
@@ -40364,10 +40427,10 @@
         <v>111</v>
       </c>
       <c r="B44" s="71" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C44" s="71" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D44" s="71"/>
       <c r="E44" s="72"/>
@@ -40398,10 +40461,10 @@
         <v>111</v>
       </c>
       <c r="B45" s="71" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C45" s="71" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D45" s="71"/>
       <c r="E45" s="72"/>
@@ -40432,10 +40495,10 @@
         <v>111</v>
       </c>
       <c r="B46" s="71" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C46" s="71" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D46" s="71"/>
       <c r="E46" s="72"/>
@@ -40466,10 +40529,10 @@
         <v>111</v>
       </c>
       <c r="B47" s="71" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C47" s="71" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D47" s="71"/>
       <c r="E47" s="72"/>
@@ -40500,10 +40563,10 @@
         <v>111</v>
       </c>
       <c r="B48" s="71" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C48" s="71" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D48" s="71"/>
       <c r="E48" s="72"/>
@@ -40534,10 +40597,10 @@
         <v>111</v>
       </c>
       <c r="B49" s="71" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C49" s="71" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D49" s="71"/>
       <c r="E49" s="72"/>
@@ -40568,10 +40631,10 @@
         <v>111</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C50" s="71" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D50" s="71"/>
       <c r="E50" s="72"/>
@@ -40602,10 +40665,10 @@
         <v>111</v>
       </c>
       <c r="B51" s="71" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C51" s="71" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D51" s="71"/>
       <c r="E51" s="72"/>
@@ -40636,10 +40699,10 @@
         <v>111</v>
       </c>
       <c r="B52" s="71" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C52" s="71" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D52" s="71"/>
       <c r="E52" s="72"/>
@@ -40670,10 +40733,10 @@
         <v>111</v>
       </c>
       <c r="B53" s="71" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C53" s="71" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D53" s="71"/>
       <c r="E53" s="72"/>
@@ -40704,10 +40767,10 @@
         <v>111</v>
       </c>
       <c r="B54" s="71" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C54" s="71" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D54" s="71"/>
       <c r="E54" s="72"/>
@@ -40738,10 +40801,10 @@
         <v>111</v>
       </c>
       <c r="B55" s="71" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C55" s="71" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D55" s="71"/>
       <c r="E55" s="72"/>
@@ -40772,10 +40835,10 @@
         <v>111</v>
       </c>
       <c r="B56" s="71" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C56" s="71" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D56" s="71"/>
       <c r="E56" s="72"/>
@@ -40806,10 +40869,10 @@
         <v>111</v>
       </c>
       <c r="B57" s="71" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C57" s="71" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D57" s="71"/>
       <c r="E57" s="72"/>
@@ -40840,10 +40903,10 @@
         <v>111</v>
       </c>
       <c r="B58" s="71" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C58" s="71" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D58" s="71"/>
       <c r="E58" s="72"/>
@@ -40896,10 +40959,10 @@
         <v>127</v>
       </c>
       <c r="B60" s="74" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C60" s="74" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
@@ -40925,10 +40988,10 @@
         <v>127</v>
       </c>
       <c r="B61" s="74" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C61" s="74" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
@@ -40954,10 +41017,10 @@
         <v>127</v>
       </c>
       <c r="B62" s="74" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C62" s="74" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
@@ -40983,10 +41046,10 @@
         <v>127</v>
       </c>
       <c r="B63" s="74" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C63" s="74" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
@@ -41012,10 +41075,10 @@
         <v>127</v>
       </c>
       <c r="B64" s="74" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C64" s="74" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
@@ -41041,10 +41104,10 @@
         <v>127</v>
       </c>
       <c r="B65" s="74" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C65" s="74" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
@@ -41070,10 +41133,10 @@
         <v>127</v>
       </c>
       <c r="B66" s="74" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C66" s="74" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
@@ -41099,10 +41162,10 @@
         <v>127</v>
       </c>
       <c r="B67" s="74" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C67" s="74" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
@@ -41128,10 +41191,10 @@
         <v>127</v>
       </c>
       <c r="B68" s="74" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C68" s="74" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
@@ -41157,10 +41220,10 @@
         <v>127</v>
       </c>
       <c r="B69" s="74" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C69" s="74" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D69" s="43"/>
       <c r="E69" s="43"/>
@@ -41209,10 +41272,10 @@
         <v>119</v>
       </c>
       <c r="B71" s="76" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C71" s="76" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D71" s="43"/>
       <c r="E71" s="43"/>
@@ -41238,10 +41301,10 @@
         <v>119</v>
       </c>
       <c r="B72" s="76" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C72" s="76" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D72" s="43"/>
       <c r="E72" s="43"/>
@@ -41267,10 +41330,10 @@
         <v>119</v>
       </c>
       <c r="B73" s="76" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C73" s="76" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D73" s="43"/>
       <c r="E73" s="43"/>
@@ -41296,10 +41359,10 @@
         <v>119</v>
       </c>
       <c r="B74" s="76" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C74" s="76" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D74" s="43"/>
       <c r="E74" s="43"/>
@@ -41325,10 +41388,10 @@
         <v>119</v>
       </c>
       <c r="B75" s="76" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C75" s="76" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D75" s="43"/>
       <c r="E75" s="43"/>
@@ -41354,10 +41417,10 @@
         <v>119</v>
       </c>
       <c r="B76" s="76" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C76" s="76" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D76" s="43"/>
       <c r="E76" s="43"/>
@@ -41406,10 +41469,10 @@
         <v>186</v>
       </c>
       <c r="B78" s="78" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C78" s="78" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D78" s="43"/>
       <c r="E78" s="43"/>
@@ -41435,10 +41498,10 @@
         <v>186</v>
       </c>
       <c r="B79" s="78" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C79" s="78" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D79" s="43"/>
       <c r="E79" s="43"/>
@@ -41464,10 +41527,10 @@
         <v>186</v>
       </c>
       <c r="B80" s="78" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C80" s="78" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D80" s="43"/>
       <c r="E80" s="43"/>
@@ -41493,10 +41556,10 @@
         <v>186</v>
       </c>
       <c r="B81" s="78" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C81" s="78" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D81" s="43"/>
       <c r="E81" s="43"/>
@@ -41522,10 +41585,10 @@
         <v>186</v>
       </c>
       <c r="B82" s="78" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C82" s="78" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D82" s="43"/>
       <c r="E82" s="43"/>
@@ -48866,25 +48929,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="79" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B1" s="79" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C1" s="79" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D1" s="79" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E1" s="79" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F1" s="79" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G1" s="80" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H1" s="79"/>
       <c r="I1" s="79"/>
@@ -48908,24 +48971,24 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="81" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C2" s="82">
         <f>NOW()</f>
-        <v>45162.36059</v>
+        <v>45168.15247</v>
       </c>
       <c r="D2" s="83" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E2" s="83" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F2" s="66"/>
       <c r="G2" s="84" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H2" s="66"/>
       <c r="I2" s="66"/>
@@ -49973,7 +50036,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="79" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B1" s="79" t="s">
         <v>1</v>
@@ -50016,13 +50079,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="68" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B2" s="68" t="s">
         <v>93</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
@@ -50047,13 +50110,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="68" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C3" s="68" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D3" s="68"/>
       <c r="E3" s="68"/>
@@ -50103,13 +50166,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="68" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D5" s="68"/>
       <c r="E5" s="68"/>
@@ -50134,13 +50197,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="68" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D6" s="68"/>
       <c r="E6" s="68"/>
@@ -50165,13 +50228,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="68" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D7" s="68"/>
       <c r="E7" s="68"/>
@@ -50196,13 +50259,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="68" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D8" s="68"/>
       <c r="E8" s="68"/>
@@ -50227,13 +50290,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="68" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D9" s="68"/>
       <c r="E9" s="68"/>
@@ -50283,13 +50346,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="68" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D11" s="68"/>
       <c r="E11" s="68"/>
@@ -50314,13 +50377,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="68" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D12" s="68"/>
       <c r="E12" s="68"/>
@@ -50345,13 +50408,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="68" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D13" s="68"/>
       <c r="E13" s="68"/>
@@ -50376,13 +50439,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="68" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
@@ -50407,13 +50470,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="68" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B15" s="68" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
@@ -50438,13 +50501,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="68" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
@@ -50494,13 +50557,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="68" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D18" s="68"/>
       <c r="E18" s="68"/>
@@ -50525,13 +50588,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="68" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D19" s="68"/>
       <c r="E19" s="68"/>
@@ -50556,13 +50619,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="68" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -50587,13 +50650,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="68" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
@@ -50618,13 +50681,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="68" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D22" s="68"/>
       <c r="E22" s="68"/>
@@ -50649,13 +50712,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="68" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B23" s="68" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D23" s="68"/>
       <c r="E23" s="68"/>
@@ -50705,13 +50768,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="68" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B25" s="68" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D25" s="68"/>
       <c r="E25" s="68"/>
@@ -50736,13 +50799,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="68" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B26" s="68" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D26" s="68"/>
       <c r="E26" s="68"/>
@@ -50767,13 +50830,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="68" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B27" s="68" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C27" s="68" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D27" s="68"/>
       <c r="E27" s="68"/>
@@ -50798,13 +50861,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="68" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B28" s="68" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C28" s="68" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D28" s="68"/>
       <c r="E28" s="68"/>
@@ -50829,13 +50892,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="68" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B29" s="68" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D29" s="68"/>
       <c r="E29" s="68"/>
@@ -50885,13 +50948,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="68" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B31" s="68" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D31" s="68"/>
       <c r="E31" s="68"/>
@@ -50916,13 +50979,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="68" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B32" s="68" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C32" s="68" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D32" s="68"/>
       <c r="E32" s="68"/>
@@ -50972,121 +51035,121 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="92" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B34" s="92" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" s="92" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="92" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B35" s="92" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" s="92" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="92" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B36" s="92" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" s="92" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="92" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B37" s="92" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" s="92" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="92" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B38" s="92" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" s="92" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="92" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B39" s="92" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" s="92" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="92" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B40" s="92" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" s="92" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="92" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B41" s="92" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" s="92" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="92" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B42" s="92" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" s="92" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="92" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B43" s="92" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C43" s="92" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -51097,26 +51160,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="92" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B45" s="92" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" s="92" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="92" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B46" s="92" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" s="92" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -51127,13 +51190,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="83" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B48" s="83" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C48" s="83" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D48" s="83"/>
       <c r="E48" s="83"/>
@@ -51158,13 +51221,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="83" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B49" s="83" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C49" s="83" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D49" s="83"/>
       <c r="E49" s="83"/>
@@ -51190,226 +51253,226 @@
     <row r="50" ht="12.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="92" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B51" s="92" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C51" s="92" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="92" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B52" s="92" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C52" s="92" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="92" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B53" s="92" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C53" s="92" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="92" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B54" s="92" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C54" s="92" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="92" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B55" s="92" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C55" s="92" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="92" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B56" s="92" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C56" s="92" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="83" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B58" s="83" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C58" s="83" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="83" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B59" s="83" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C59" s="83" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="83" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B60" s="83" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C60" s="83" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="83" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B61" s="83" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C61" s="83" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="66" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B63" s="66" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C63" s="83" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="66" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B64" s="66" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C64" s="83" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="66" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B65" s="66" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C65" s="83" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="66" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B66" s="66" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C66" s="83" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="66" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B67" s="66" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C67" s="83" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="92" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B69" s="92" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C69" s="92" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="92" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B70" s="92" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C70" s="92" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="92" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B72" s="92" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C72" s="93" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="92" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B73" s="92" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C73" s="92" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="92" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B74" s="92" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C74" s="92" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/cht_app/forms/app/padr.xlsx
+++ b/cht_app/forms/app/padr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="445">
   <si>
     <t>type</t>
   </si>
@@ -356,9 +356,6 @@
   </si>
   <si>
     <t>Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
-  </si>
-  <si>
-    <t>${patient_phone}</t>
   </si>
   <si>
     <t>select_one relation</t>
@@ -4976,9 +4973,7 @@
       <c r="G53" s="37"/>
       <c r="H53" s="37"/>
       <c r="I53" s="37"/>
-      <c r="J53" s="39" t="s">
-        <v>99</v>
-      </c>
+      <c r="J53" s="39"/>
       <c r="K53" s="39"/>
       <c r="L53" s="31"/>
       <c r="M53" s="44" t="s">
@@ -4993,9 +4988,7 @@
       <c r="R53" s="31"/>
       <c r="S53" s="31"/>
       <c r="T53" s="31"/>
-      <c r="U53" s="44" t="s">
-        <v>114</v>
-      </c>
+      <c r="U53" s="44"/>
       <c r="V53" s="31"/>
       <c r="W53" s="31"/>
       <c r="X53" s="31"/>
@@ -5021,13 +5014,13 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="C54" s="47" t="s">
         <v>116</v>
-      </c>
-      <c r="C54" s="47" t="s">
-        <v>117</v>
       </c>
       <c r="D54" s="37"/>
       <c r="E54" s="37"/>
@@ -5075,13 +5068,13 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="C55" s="47" t="s">
         <v>119</v>
-      </c>
-      <c r="C55" s="47" t="s">
-        <v>120</v>
       </c>
       <c r="D55" s="37"/>
       <c r="E55" s="37"/>
@@ -5094,7 +5087,7 @@
       </c>
       <c r="K55" s="39"/>
       <c r="L55" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M55" s="39"/>
       <c r="N55" s="50"/>
@@ -5131,13 +5124,13 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
@@ -5159,7 +5152,7 @@
       <c r="S56" s="31"/>
       <c r="T56" s="31"/>
       <c r="U56" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V56" s="31"/>
       <c r="W56" s="31"/>
@@ -5237,7 +5230,7 @@
         <v>34</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C58" s="36" t="s">
         <v>36</v>
@@ -5250,7 +5243,7 @@
       <c r="I58" s="37"/>
       <c r="J58" s="37"/>
       <c r="K58" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L58" s="31" t="s">
         <v>38</v>
@@ -5290,13 +5283,13 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="C59" s="47" t="s">
         <v>128</v>
-      </c>
-      <c r="C59" s="47" t="s">
-        <v>129</v>
       </c>
       <c r="D59" s="37"/>
       <c r="E59" s="37"/>
@@ -5345,10 +5338,10 @@
         <v>105</v>
       </c>
       <c r="B60" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="47" t="s">
         <v>130</v>
-      </c>
-      <c r="C60" s="47" t="s">
-        <v>131</v>
       </c>
       <c r="D60" s="37"/>
       <c r="E60" s="37"/>
@@ -5359,7 +5352,7 @@
       <c r="J60" s="37"/>
       <c r="K60" s="52"/>
       <c r="L60" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M60" s="37"/>
       <c r="N60" s="50"/>
@@ -5447,7 +5440,7 @@
         <v>34</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C62" s="36" t="s">
         <v>36</v>
@@ -5460,7 +5453,7 @@
       <c r="I62" s="37"/>
       <c r="J62" s="37"/>
       <c r="K62" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L62" s="31" t="s">
         <v>38</v>
@@ -5500,13 +5493,13 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="C63" s="47" t="s">
         <v>136</v>
-      </c>
-      <c r="C63" s="47" t="s">
-        <v>137</v>
       </c>
       <c r="D63" s="37"/>
       <c r="E63" s="37"/>
@@ -5555,10 +5548,10 @@
         <v>105</v>
       </c>
       <c r="B64" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="47" t="s">
         <v>138</v>
-      </c>
-      <c r="C64" s="47" t="s">
-        <v>139</v>
       </c>
       <c r="D64" s="37"/>
       <c r="E64" s="37"/>
@@ -5604,13 +5597,13 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="C65" s="47" t="s">
         <v>141</v>
-      </c>
-      <c r="C65" s="47" t="s">
-        <v>142</v>
       </c>
       <c r="D65" s="37"/>
       <c r="E65" s="37"/>
@@ -5624,10 +5617,10 @@
       <c r="K65" s="52"/>
       <c r="L65" s="31"/>
       <c r="M65" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="N65" s="36" t="s">
         <v>143</v>
-      </c>
-      <c r="N65" s="36" t="s">
-        <v>144</v>
       </c>
       <c r="O65" s="31"/>
       <c r="P65" s="31"/>
@@ -5665,10 +5658,10 @@
         <v>96</v>
       </c>
       <c r="B66" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="47" t="s">
         <v>145</v>
-      </c>
-      <c r="C66" s="47" t="s">
-        <v>146</v>
       </c>
       <c r="D66" s="37"/>
       <c r="E66" s="37"/>
@@ -5861,10 +5854,10 @@
         <v>34</v>
       </c>
       <c r="B70" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="47" t="s">
         <v>147</v>
-      </c>
-      <c r="C70" s="47" t="s">
-        <v>148</v>
       </c>
       <c r="D70" s="37"/>
       <c r="E70" s="37"/>
@@ -5913,7 +5906,7 @@
         <v>34</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C71" s="61" t="s">
         <v>36</v>
@@ -5964,13 +5957,13 @@
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="B72" s="60" t="s">
+      <c r="C72" s="62" t="s">
         <v>151</v>
-      </c>
-      <c r="C72" s="62" t="s">
-        <v>152</v>
       </c>
       <c r="D72" s="37"/>
       <c r="E72" s="37"/>
@@ -6016,13 +6009,13 @@
     </row>
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="B73" s="60" t="s">
+      <c r="C73" s="39" t="s">
         <v>154</v>
-      </c>
-      <c r="C73" s="39" t="s">
-        <v>155</v>
       </c>
       <c r="D73" s="37"/>
       <c r="E73" s="37"/>
@@ -6036,10 +6029,10 @@
       <c r="K73" s="37"/>
       <c r="L73" s="39"/>
       <c r="M73" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="N73" s="63" t="s">
         <v>156</v>
-      </c>
-      <c r="N73" s="63" t="s">
-        <v>157</v>
       </c>
       <c r="O73" s="37"/>
       <c r="P73" s="37"/>
@@ -6050,7 +6043,7 @@
       <c r="U73" s="39"/>
       <c r="V73" s="39"/>
       <c r="W73" s="64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X73" s="37"/>
       <c r="Y73" s="37"/>
@@ -6082,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D74" s="37"/>
       <c r="E74" s="37"/>
@@ -6094,7 +6087,7 @@
         <v>99</v>
       </c>
       <c r="K74" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L74" s="39"/>
       <c r="M74" s="37"/>
@@ -6135,10 +6128,10 @@
         <v>105</v>
       </c>
       <c r="B75" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" s="47" t="s">
         <v>161</v>
-      </c>
-      <c r="C75" s="47" t="s">
-        <v>162</v>
       </c>
       <c r="D75" s="37"/>
       <c r="E75" s="37"/>
@@ -6150,7 +6143,7 @@
         <v>99</v>
       </c>
       <c r="K75" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L75" s="39"/>
       <c r="M75" s="37"/>
@@ -6191,10 +6184,10 @@
         <v>105</v>
       </c>
       <c r="B76" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" s="47" t="s">
         <v>163</v>
-      </c>
-      <c r="C76" s="47" t="s">
-        <v>164</v>
       </c>
       <c r="D76" s="37"/>
       <c r="E76" s="37"/>
@@ -6206,7 +6199,7 @@
         <v>99</v>
       </c>
       <c r="K76" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L76" s="39"/>
       <c r="M76" s="37"/>
@@ -6244,13 +6237,13 @@
     </row>
     <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B77" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" s="47" t="s">
         <v>165</v>
-      </c>
-      <c r="C77" s="47" t="s">
-        <v>166</v>
       </c>
       <c r="D77" s="37"/>
       <c r="E77" s="37"/>
@@ -6262,14 +6255,14 @@
         <v>99</v>
       </c>
       <c r="K77" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L77" s="39"/>
       <c r="M77" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="N77" s="47" t="s">
         <v>167</v>
-      </c>
-      <c r="N77" s="47" t="s">
-        <v>168</v>
       </c>
       <c r="O77" s="37"/>
       <c r="P77" s="37"/>
@@ -6304,13 +6297,13 @@
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B78" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" s="47" t="s">
         <v>169</v>
-      </c>
-      <c r="C78" s="47" t="s">
-        <v>170</v>
       </c>
       <c r="D78" s="37"/>
       <c r="E78" s="37"/>
@@ -6320,14 +6313,14 @@
       <c r="I78" s="37"/>
       <c r="J78" s="51"/>
       <c r="K78" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L78" s="39"/>
       <c r="M78" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="N78" s="47" t="s">
         <v>171</v>
-      </c>
-      <c r="N78" s="47" t="s">
-        <v>172</v>
       </c>
       <c r="O78" s="37"/>
       <c r="P78" s="37"/>
@@ -6362,13 +6355,13 @@
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B79" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" s="47" t="s">
         <v>173</v>
-      </c>
-      <c r="C79" s="47" t="s">
-        <v>174</v>
       </c>
       <c r="D79" s="37"/>
       <c r="E79" s="37"/>
@@ -6378,12 +6371,12 @@
       <c r="I79" s="37"/>
       <c r="J79" s="51"/>
       <c r="K79" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L79" s="39"/>
       <c r="M79" s="53"/>
       <c r="N79" s="61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O79" s="37"/>
       <c r="P79" s="37"/>
@@ -6464,13 +6457,13 @@
     </row>
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B81" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" s="61" t="s">
         <v>175</v>
-      </c>
-      <c r="C81" s="61" t="s">
-        <v>176</v>
       </c>
       <c r="D81" s="37"/>
       <c r="E81" s="37"/>
@@ -6480,7 +6473,7 @@
       <c r="I81" s="37"/>
       <c r="J81" s="37"/>
       <c r="K81" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L81" s="39"/>
       <c r="M81" s="37"/>
@@ -6518,13 +6511,13 @@
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B82" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="53" t="s">
         <v>178</v>
-      </c>
-      <c r="C82" s="53" t="s">
-        <v>179</v>
       </c>
       <c r="D82" s="37"/>
       <c r="E82" s="37"/>
@@ -6534,7 +6527,7 @@
       <c r="I82" s="37"/>
       <c r="J82" s="37"/>
       <c r="K82" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L82" s="39"/>
       <c r="M82" s="37"/>
@@ -6574,10 +6567,10 @@
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="B83" s="60" t="s">
         <v>180</v>
-      </c>
-      <c r="B83" s="60" t="s">
-        <v>181</v>
       </c>
       <c r="C83" s="39" t="s">
         <v>36</v>
@@ -6590,7 +6583,7 @@
       <c r="I83" s="37"/>
       <c r="J83" s="37"/>
       <c r="K83" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L83" s="39"/>
       <c r="M83" s="37"/>
@@ -6614,7 +6607,7 @@
       <c r="AE83" s="37"/>
       <c r="AF83" s="39"/>
       <c r="AG83" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AH83" s="39"/>
       <c r="AI83" s="39"/>
@@ -6633,10 +6626,10 @@
         <v>105</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C84" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D84" s="37"/>
       <c r="E84" s="37"/>
@@ -6648,7 +6641,7 @@
         <v>99</v>
       </c>
       <c r="K84" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L84" s="39"/>
       <c r="M84" s="37"/>
@@ -6689,10 +6682,10 @@
         <v>105</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C85" s="47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D85" s="37"/>
       <c r="E85" s="37"/>
@@ -6704,7 +6697,7 @@
         <v>99</v>
       </c>
       <c r="K85" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L85" s="39"/>
       <c r="M85" s="37"/>
@@ -6745,10 +6738,10 @@
         <v>105</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C86" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D86" s="37"/>
       <c r="E86" s="37"/>
@@ -6760,7 +6753,7 @@
         <v>99</v>
       </c>
       <c r="K86" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L86" s="39"/>
       <c r="M86" s="37"/>
@@ -6798,13 +6791,13 @@
     </row>
     <row r="87" ht="12.75" customHeight="1">
       <c r="A87" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C87" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D87" s="37"/>
       <c r="E87" s="37"/>
@@ -6816,14 +6809,14 @@
         <v>99</v>
       </c>
       <c r="K87" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L87" s="39"/>
       <c r="M87" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="N87" s="47" t="s">
         <v>167</v>
-      </c>
-      <c r="N87" s="47" t="s">
-        <v>168</v>
       </c>
       <c r="O87" s="37"/>
       <c r="P87" s="37"/>
@@ -6858,13 +6851,13 @@
     </row>
     <row r="88" ht="12.75" customHeight="1">
       <c r="A88" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B88" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C88" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D88" s="37"/>
       <c r="E88" s="37"/>
@@ -6874,14 +6867,14 @@
       <c r="I88" s="37"/>
       <c r="J88" s="51"/>
       <c r="K88" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L88" s="39"/>
       <c r="M88" s="65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N88" s="47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O88" s="37"/>
       <c r="P88" s="37"/>
@@ -6916,13 +6909,13 @@
     </row>
     <row r="89" ht="12.75" customHeight="1">
       <c r="A89" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C89" s="47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D89" s="37"/>
       <c r="E89" s="37"/>
@@ -6932,12 +6925,12 @@
       <c r="I89" s="37"/>
       <c r="J89" s="51"/>
       <c r="K89" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L89" s="39"/>
       <c r="M89" s="53"/>
       <c r="N89" s="61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O89" s="37"/>
       <c r="P89" s="37"/>
@@ -6972,10 +6965,10 @@
     </row>
     <row r="90" ht="12.75" customHeight="1">
       <c r="A90" s="60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B90" s="60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C90" s="39" t="s">
         <v>36</v>
@@ -7075,7 +7068,7 @@
         <v>55</v>
       </c>
       <c r="B92" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C92" s="61"/>
       <c r="D92" s="37"/>
@@ -7171,10 +7164,10 @@
         <v>34</v>
       </c>
       <c r="B94" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" s="47" t="s">
         <v>191</v>
-      </c>
-      <c r="C94" s="47" t="s">
-        <v>192</v>
       </c>
       <c r="D94" s="37"/>
       <c r="E94" s="37"/>
@@ -7223,7 +7216,7 @@
         <v>34</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C95" s="36" t="s">
         <v>36</v>
@@ -7274,13 +7267,13 @@
     </row>
     <row r="96" ht="18.75" customHeight="1">
       <c r="A96" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="B96" s="35" t="s">
+      <c r="C96" s="47" t="s">
         <v>195</v>
-      </c>
-      <c r="C96" s="47" t="s">
-        <v>196</v>
       </c>
       <c r="D96" s="37"/>
       <c r="E96" s="37"/>
@@ -7379,7 +7372,7 @@
         <v>55</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C98" s="61"/>
       <c r="D98" s="37"/>
@@ -7525,7 +7518,7 @@
         <v>34</v>
       </c>
       <c r="B101" s="67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C101" s="68" t="s">
         <v>36</v>
@@ -7539,7 +7532,7 @@
       <c r="J101" s="68"/>
       <c r="K101" s="68"/>
       <c r="L101" s="68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M101" s="68"/>
       <c r="N101" s="69"/>
@@ -7578,13 +7571,13 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B102" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="C102" s="68" t="s">
         <v>199</v>
-      </c>
-      <c r="C102" s="68" t="s">
-        <v>200</v>
       </c>
       <c r="D102" s="68"/>
       <c r="E102" s="68"/>
@@ -7630,13 +7623,13 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B103" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" s="68" t="s">
         <v>201</v>
-      </c>
-      <c r="C103" s="68" t="s">
-        <v>202</v>
       </c>
       <c r="D103" s="68"/>
       <c r="E103" s="68"/>
@@ -7647,7 +7640,7 @@
       <c r="J103" s="68"/>
       <c r="K103" s="68"/>
       <c r="L103" s="68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M103" s="68"/>
       <c r="N103" s="69"/>
@@ -7687,7 +7680,7 @@
         <v>73</v>
       </c>
       <c r="B104" s="67" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C104" s="68" t="s">
         <v>36</v>
@@ -7710,7 +7703,7 @@
       <c r="S104" s="68"/>
       <c r="T104" s="68"/>
       <c r="U104" s="68" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V104" s="68"/>
       <c r="W104" s="68"/>
@@ -7738,13 +7731,13 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B105" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105" s="71" t="s">
         <v>206</v>
-      </c>
-      <c r="C105" s="71" t="s">
-        <v>207</v>
       </c>
       <c r="D105" s="68"/>
       <c r="E105" s="68"/>
@@ -7790,13 +7783,13 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B106" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="C106" s="71" t="s">
         <v>208</v>
-      </c>
-      <c r="C106" s="71" t="s">
-        <v>209</v>
       </c>
       <c r="D106" s="68"/>
       <c r="E106" s="68"/>
@@ -7844,13 +7837,13 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B107" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="C107" s="68" t="s">
         <v>210</v>
-      </c>
-      <c r="C107" s="68" t="s">
-        <v>211</v>
       </c>
       <c r="D107" s="68"/>
       <c r="E107" s="68"/>
@@ -7861,7 +7854,7 @@
       <c r="J107" s="68"/>
       <c r="K107" s="68"/>
       <c r="L107" s="68" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M107" s="68"/>
       <c r="N107" s="69"/>
@@ -7898,10 +7891,10 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B108" s="67" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C108" s="68" t="s">
         <v>36</v>
@@ -7950,13 +7943,13 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B109" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C109" s="72" t="s">
         <v>214</v>
-      </c>
-      <c r="C109" s="72" t="s">
-        <v>215</v>
       </c>
       <c r="D109" s="68"/>
       <c r="E109" s="68"/>
@@ -7966,10 +7959,10 @@
       <c r="I109" s="68"/>
       <c r="J109" s="68"/>
       <c r="K109" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="L109" s="71" t="s">
         <v>216</v>
-      </c>
-      <c r="L109" s="71" t="s">
-        <v>217</v>
       </c>
       <c r="M109" s="68"/>
       <c r="N109" s="69"/>
@@ -8006,13 +7999,13 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B110" s="74" t="s">
+        <v>217</v>
+      </c>
+      <c r="C110" s="72" t="s">
         <v>218</v>
-      </c>
-      <c r="C110" s="72" t="s">
-        <v>219</v>
       </c>
       <c r="D110" s="68"/>
       <c r="E110" s="68"/>
@@ -8022,10 +8015,10 @@
       <c r="I110" s="68"/>
       <c r="J110" s="68"/>
       <c r="K110" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="L110" s="71" t="s">
         <v>220</v>
-      </c>
-      <c r="L110" s="71" t="s">
-        <v>221</v>
       </c>
       <c r="M110" s="68"/>
       <c r="N110" s="69"/>
@@ -8062,13 +8055,13 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B111" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="C111" s="72" t="s">
         <v>222</v>
-      </c>
-      <c r="C111" s="72" t="s">
-        <v>223</v>
       </c>
       <c r="D111" s="68"/>
       <c r="E111" s="68"/>
@@ -8078,10 +8071,10 @@
       <c r="I111" s="68"/>
       <c r="J111" s="68"/>
       <c r="K111" s="46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L111" s="71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M111" s="68"/>
       <c r="N111" s="69"/>
@@ -8215,7 +8208,7 @@
         <v>34</v>
       </c>
       <c r="B114" s="79" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C114" s="80" t="s">
         <v>36</v>
@@ -8271,7 +8264,7 @@
         <v>73</v>
       </c>
       <c r="B115" s="82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C115" s="80" t="s">
         <v>36</v>
@@ -8294,7 +8287,7 @@
       <c r="S115" s="80"/>
       <c r="T115" s="80"/>
       <c r="U115" s="83" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="V115" s="80"/>
       <c r="W115" s="80"/>
@@ -8308,7 +8301,7 @@
       <c r="AE115" s="80"/>
       <c r="AF115" s="80"/>
       <c r="AG115" s="80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AH115" s="80"/>
       <c r="AI115" s="80"/>
@@ -8327,7 +8320,7 @@
         <v>34</v>
       </c>
       <c r="B116" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C116" s="80" t="s">
         <v>36</v>
@@ -8379,7 +8372,7 @@
         <v>73</v>
       </c>
       <c r="B117" s="79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C117" s="80" t="s">
         <v>36</v>
@@ -8402,7 +8395,7 @@
       <c r="S117" s="80"/>
       <c r="T117" s="80"/>
       <c r="U117" s="80" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="V117" s="80"/>
       <c r="W117" s="80"/>
@@ -8416,7 +8409,7 @@
       <c r="AE117" s="80"/>
       <c r="AF117" s="80"/>
       <c r="AG117" s="80" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AH117" s="80"/>
       <c r="AI117" s="80"/>
@@ -8435,7 +8428,7 @@
         <v>73</v>
       </c>
       <c r="B118" s="79" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C118" s="80" t="s">
         <v>36</v>
@@ -8458,7 +8451,7 @@
       <c r="S118" s="80"/>
       <c r="T118" s="80"/>
       <c r="U118" s="80" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="V118" s="80"/>
       <c r="W118" s="80"/>
@@ -8491,7 +8484,7 @@
         <v>73</v>
       </c>
       <c r="B119" s="79" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C119" s="80" t="s">
         <v>36</v>
@@ -8514,7 +8507,7 @@
       <c r="S119" s="80"/>
       <c r="T119" s="80"/>
       <c r="U119" s="80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="V119" s="80"/>
       <c r="W119" s="80"/>
@@ -8528,7 +8521,7 @@
       <c r="AE119" s="80"/>
       <c r="AF119" s="80"/>
       <c r="AG119" s="80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AH119" s="80"/>
       <c r="AI119" s="80"/>
@@ -8547,7 +8540,7 @@
         <v>73</v>
       </c>
       <c r="B120" s="79" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C120" s="80" t="s">
         <v>36</v>
@@ -8570,7 +8563,7 @@
       <c r="S120" s="80"/>
       <c r="T120" s="80"/>
       <c r="U120" s="80" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V120" s="80"/>
       <c r="W120" s="80"/>
@@ -8603,7 +8596,7 @@
         <v>73</v>
       </c>
       <c r="B121" s="79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C121" s="80" t="s">
         <v>36</v>
@@ -8626,7 +8619,7 @@
       <c r="S121" s="80"/>
       <c r="T121" s="80"/>
       <c r="U121" s="80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="V121" s="80"/>
       <c r="W121" s="80"/>
@@ -8640,7 +8633,7 @@
       <c r="AE121" s="80"/>
       <c r="AF121" s="80"/>
       <c r="AG121" s="80" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AH121" s="80"/>
       <c r="AI121" s="80"/>
@@ -8659,7 +8652,7 @@
         <v>55</v>
       </c>
       <c r="B122" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C122" s="80"/>
       <c r="D122" s="80"/>
@@ -8709,7 +8702,7 @@
         <v>55</v>
       </c>
       <c r="B123" s="84" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C123" s="80"/>
       <c r="D123" s="80"/>
@@ -39285,7 +39278,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="85" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" s="85" t="s">
         <v>1</v>
@@ -39294,7 +39287,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E1" s="70"/>
       <c r="F1" s="70"/>
@@ -39317,13 +39310,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="88" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="88" t="s">
-        <v>245</v>
-      </c>
       <c r="C2" s="70" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D2" s="70"/>
       <c r="E2" s="70"/>
@@ -39347,13 +39340,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B3" s="88" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D3" s="70"/>
       <c r="E3" s="70"/>
@@ -39404,10 +39397,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="89" t="s">
         <v>247</v>
-      </c>
-      <c r="C5" s="89" t="s">
-        <v>248</v>
       </c>
       <c r="D5" s="70"/>
       <c r="E5" s="70"/>
@@ -39434,10 +39427,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="89" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="89" t="s">
         <v>249</v>
-      </c>
-      <c r="C6" s="89" t="s">
-        <v>250</v>
       </c>
       <c r="D6" s="70"/>
       <c r="E6" s="70"/>
@@ -39485,13 +39478,13 @@
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="88" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="88" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D8" s="57"/>
       <c r="E8" s="57"/>
@@ -39514,13 +39507,13 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="88" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="88" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C9" s="88" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D9" s="57"/>
       <c r="E9" s="57"/>
@@ -39543,13 +39536,13 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="88" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D10" s="57"/>
       <c r="E10" s="57"/>
@@ -39595,13 +39588,13 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D12" s="91"/>
       <c r="E12" s="92"/>
@@ -39629,13 +39622,13 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D13" s="91"/>
       <c r="E13" s="92"/>
@@ -39663,13 +39656,13 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D14" s="91"/>
       <c r="E14" s="92"/>
@@ -39697,13 +39690,13 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="91" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D15" s="91"/>
       <c r="E15" s="92"/>
@@ -39731,13 +39724,13 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C16" s="91" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D16" s="91"/>
       <c r="E16" s="92"/>
@@ -39765,13 +39758,13 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="91" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D17" s="91"/>
       <c r="E17" s="92"/>
@@ -39799,13 +39792,13 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="91" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C18" s="91" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D18" s="91"/>
       <c r="E18" s="92"/>
@@ -39833,13 +39826,13 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C19" s="91" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D19" s="91"/>
       <c r="E19" s="92"/>
@@ -39867,13 +39860,13 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C20" s="91" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D20" s="91"/>
       <c r="E20" s="92"/>
@@ -39901,13 +39894,13 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B21" s="91" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C21" s="91" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D21" s="91"/>
       <c r="E21" s="92"/>
@@ -39935,13 +39928,13 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" s="91" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C22" s="91" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D22" s="91"/>
       <c r="E22" s="92"/>
@@ -39969,13 +39962,13 @@
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" s="91" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C23" s="91" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D23" s="91"/>
       <c r="E23" s="92"/>
@@ -40003,13 +39996,13 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C24" s="91" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D24" s="91"/>
       <c r="E24" s="92"/>
@@ -40037,13 +40030,13 @@
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" s="91" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C25" s="91" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D25" s="91"/>
       <c r="E25" s="92"/>
@@ -40071,13 +40064,13 @@
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C26" s="91" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D26" s="91"/>
       <c r="E26" s="92"/>
@@ -40105,13 +40098,13 @@
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B27" s="91" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C27" s="91" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D27" s="91"/>
       <c r="E27" s="92"/>
@@ -40139,13 +40132,13 @@
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" s="91" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C28" s="91" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D28" s="91"/>
       <c r="E28" s="92"/>
@@ -40173,13 +40166,13 @@
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" s="91" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C29" s="91" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D29" s="91"/>
       <c r="E29" s="92"/>
@@ -40207,13 +40200,13 @@
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B30" s="91" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C30" s="91" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D30" s="91"/>
       <c r="E30" s="92"/>
@@ -40241,13 +40234,13 @@
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B31" s="91" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C31" s="91" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D31" s="91"/>
       <c r="E31" s="92"/>
@@ -40275,13 +40268,13 @@
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B32" s="91" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C32" s="91" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D32" s="91"/>
       <c r="E32" s="92"/>
@@ -40309,13 +40302,13 @@
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C33" s="91" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D33" s="91"/>
       <c r="E33" s="92"/>
@@ -40343,13 +40336,13 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B34" s="91" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C34" s="91" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D34" s="91"/>
       <c r="E34" s="92"/>
@@ -40377,13 +40370,13 @@
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B35" s="91" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C35" s="91" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D35" s="91"/>
       <c r="E35" s="92"/>
@@ -40411,13 +40404,13 @@
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B36" s="91" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C36" s="91" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D36" s="91"/>
       <c r="E36" s="92"/>
@@ -40445,13 +40438,13 @@
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B37" s="91" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C37" s="91" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D37" s="91"/>
       <c r="E37" s="92"/>
@@ -40479,13 +40472,13 @@
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B38" s="91" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C38" s="91" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D38" s="91"/>
       <c r="E38" s="92"/>
@@ -40513,13 +40506,13 @@
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B39" s="91" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C39" s="91" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D39" s="91"/>
       <c r="E39" s="92"/>
@@ -40547,13 +40540,13 @@
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B40" s="91" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C40" s="91" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D40" s="91"/>
       <c r="E40" s="92"/>
@@ -40581,13 +40574,13 @@
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B41" s="91" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C41" s="91" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D41" s="91"/>
       <c r="E41" s="92"/>
@@ -40615,13 +40608,13 @@
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B42" s="91" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C42" s="91" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D42" s="91"/>
       <c r="E42" s="92"/>
@@ -40649,13 +40642,13 @@
     </row>
     <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B43" s="91" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C43" s="91" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D43" s="91"/>
       <c r="E43" s="92"/>
@@ -40683,13 +40676,13 @@
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B44" s="91" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C44" s="91" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D44" s="91"/>
       <c r="E44" s="92"/>
@@ -40717,13 +40710,13 @@
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B45" s="91" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C45" s="91" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D45" s="91"/>
       <c r="E45" s="92"/>
@@ -40751,13 +40744,13 @@
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B46" s="91" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C46" s="91" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D46" s="91"/>
       <c r="E46" s="92"/>
@@ -40785,13 +40778,13 @@
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B47" s="91" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C47" s="91" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D47" s="91"/>
       <c r="E47" s="92"/>
@@ -40819,13 +40812,13 @@
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B48" s="91" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C48" s="91" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D48" s="91"/>
       <c r="E48" s="92"/>
@@ -40853,13 +40846,13 @@
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B49" s="91" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C49" s="91" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D49" s="91"/>
       <c r="E49" s="92"/>
@@ -40887,13 +40880,13 @@
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B50" s="91" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C50" s="91" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D50" s="91"/>
       <c r="E50" s="92"/>
@@ -40921,13 +40914,13 @@
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B51" s="91" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C51" s="91" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D51" s="91"/>
       <c r="E51" s="92"/>
@@ -40955,13 +40948,13 @@
     </row>
     <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B52" s="91" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C52" s="91" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D52" s="91"/>
       <c r="E52" s="92"/>
@@ -40989,13 +40982,13 @@
     </row>
     <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B53" s="91" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C53" s="91" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D53" s="91"/>
       <c r="E53" s="92"/>
@@ -41023,13 +41016,13 @@
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B54" s="91" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C54" s="91" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D54" s="91"/>
       <c r="E54" s="92"/>
@@ -41057,13 +41050,13 @@
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B55" s="91" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C55" s="91" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D55" s="91"/>
       <c r="E55" s="92"/>
@@ -41091,13 +41084,13 @@
     </row>
     <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B56" s="91" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C56" s="91" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D56" s="91"/>
       <c r="E56" s="92"/>
@@ -41125,13 +41118,13 @@
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B57" s="91" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C57" s="91" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D57" s="91"/>
       <c r="E57" s="92"/>
@@ -41159,13 +41152,13 @@
     </row>
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B58" s="91" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C58" s="91" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D58" s="91"/>
       <c r="E58" s="92"/>
@@ -41215,13 +41208,13 @@
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B60" s="94" t="s">
+        <v>300</v>
+      </c>
+      <c r="C60" s="94" t="s">
         <v>301</v>
-      </c>
-      <c r="C60" s="94" t="s">
-        <v>302</v>
       </c>
       <c r="D60" s="57"/>
       <c r="E60" s="57"/>
@@ -41244,13 +41237,13 @@
     </row>
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B61" s="94" t="s">
+        <v>302</v>
+      </c>
+      <c r="C61" s="94" t="s">
         <v>303</v>
-      </c>
-      <c r="C61" s="94" t="s">
-        <v>304</v>
       </c>
       <c r="D61" s="57"/>
       <c r="E61" s="57"/>
@@ -41273,13 +41266,13 @@
     </row>
     <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B62" s="94" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C62" s="94" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D62" s="57"/>
       <c r="E62" s="57"/>
@@ -41302,13 +41295,13 @@
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B63" s="94" t="s">
+        <v>305</v>
+      </c>
+      <c r="C63" s="94" t="s">
         <v>306</v>
-      </c>
-      <c r="C63" s="94" t="s">
-        <v>307</v>
       </c>
       <c r="D63" s="57"/>
       <c r="E63" s="57"/>
@@ -41331,13 +41324,13 @@
     </row>
     <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B64" s="94" t="s">
+        <v>307</v>
+      </c>
+      <c r="C64" s="94" t="s">
         <v>308</v>
-      </c>
-      <c r="C64" s="94" t="s">
-        <v>309</v>
       </c>
       <c r="D64" s="57"/>
       <c r="E64" s="57"/>
@@ -41360,13 +41353,13 @@
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B65" s="94" t="s">
+        <v>309</v>
+      </c>
+      <c r="C65" s="94" t="s">
         <v>310</v>
-      </c>
-      <c r="C65" s="94" t="s">
-        <v>311</v>
       </c>
       <c r="D65" s="57"/>
       <c r="E65" s="57"/>
@@ -41389,13 +41382,13 @@
     </row>
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B66" s="94" t="s">
+        <v>311</v>
+      </c>
+      <c r="C66" s="94" t="s">
         <v>312</v>
-      </c>
-      <c r="C66" s="94" t="s">
-        <v>313</v>
       </c>
       <c r="D66" s="57"/>
       <c r="E66" s="57"/>
@@ -41418,13 +41411,13 @@
     </row>
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B67" s="94" t="s">
+        <v>313</v>
+      </c>
+      <c r="C67" s="94" t="s">
         <v>314</v>
-      </c>
-      <c r="C67" s="94" t="s">
-        <v>315</v>
       </c>
       <c r="D67" s="57"/>
       <c r="E67" s="57"/>
@@ -41447,13 +41440,13 @@
     </row>
     <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B68" s="94" t="s">
+        <v>315</v>
+      </c>
+      <c r="C68" s="94" t="s">
         <v>316</v>
-      </c>
-      <c r="C68" s="94" t="s">
-        <v>317</v>
       </c>
       <c r="D68" s="57"/>
       <c r="E68" s="57"/>
@@ -41476,13 +41469,13 @@
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B69" s="94" t="s">
+        <v>317</v>
+      </c>
+      <c r="C69" s="94" t="s">
         <v>318</v>
-      </c>
-      <c r="C69" s="94" t="s">
-        <v>319</v>
       </c>
       <c r="D69" s="57"/>
       <c r="E69" s="57"/>
@@ -41528,13 +41521,13 @@
     </row>
     <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="95" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B71" s="96" t="s">
+        <v>319</v>
+      </c>
+      <c r="C71" s="96" t="s">
         <v>320</v>
-      </c>
-      <c r="C71" s="96" t="s">
-        <v>321</v>
       </c>
       <c r="D71" s="57"/>
       <c r="E71" s="57"/>
@@ -41557,13 +41550,13 @@
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="95" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B72" s="96" t="s">
+        <v>321</v>
+      </c>
+      <c r="C72" s="96" t="s">
         <v>322</v>
-      </c>
-      <c r="C72" s="96" t="s">
-        <v>323</v>
       </c>
       <c r="D72" s="57"/>
       <c r="E72" s="57"/>
@@ -41586,13 +41579,13 @@
     </row>
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="95" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B73" s="96" t="s">
+        <v>323</v>
+      </c>
+      <c r="C73" s="96" t="s">
         <v>324</v>
-      </c>
-      <c r="C73" s="96" t="s">
-        <v>325</v>
       </c>
       <c r="D73" s="57"/>
       <c r="E73" s="57"/>
@@ -41615,13 +41608,13 @@
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="95" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B74" s="96" t="s">
+        <v>325</v>
+      </c>
+      <c r="C74" s="96" t="s">
         <v>326</v>
-      </c>
-      <c r="C74" s="96" t="s">
-        <v>327</v>
       </c>
       <c r="D74" s="57"/>
       <c r="E74" s="57"/>
@@ -41644,13 +41637,13 @@
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="95" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B75" s="96" t="s">
+        <v>327</v>
+      </c>
+      <c r="C75" s="96" t="s">
         <v>328</v>
-      </c>
-      <c r="C75" s="96" t="s">
-        <v>329</v>
       </c>
       <c r="D75" s="57"/>
       <c r="E75" s="57"/>
@@ -41673,13 +41666,13 @@
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="95" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B76" s="96" t="s">
+        <v>329</v>
+      </c>
+      <c r="C76" s="96" t="s">
         <v>330</v>
-      </c>
-      <c r="C76" s="96" t="s">
-        <v>331</v>
       </c>
       <c r="D76" s="57"/>
       <c r="E76" s="57"/>
@@ -41725,13 +41718,13 @@
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="97" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B78" s="98" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C78" s="98" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D78" s="57"/>
       <c r="E78" s="57"/>
@@ -41754,13 +41747,13 @@
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="97" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B79" s="98" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C79" s="98" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D79" s="57"/>
       <c r="E79" s="57"/>
@@ -41783,13 +41776,13 @@
     </row>
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="97" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B80" s="98" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C80" s="98" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D80" s="57"/>
       <c r="E80" s="57"/>
@@ -41812,13 +41805,13 @@
     </row>
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="97" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B81" s="98" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C81" s="98" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D81" s="57"/>
       <c r="E81" s="57"/>
@@ -41841,13 +41834,13 @@
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="97" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B82" s="98" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C82" s="98" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D82" s="57"/>
       <c r="E82" s="57"/>
@@ -49188,25 +49181,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="99" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="99" t="s">
         <v>337</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="C1" s="99" t="s">
         <v>338</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="D1" s="99" t="s">
         <v>339</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="E1" s="99" t="s">
         <v>340</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="F1" s="99" t="s">
         <v>341</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="G1" s="100" t="s">
         <v>342</v>
-      </c>
-      <c r="G1" s="100" t="s">
-        <v>343</v>
       </c>
       <c r="H1" s="99"/>
       <c r="I1" s="99"/>
@@ -49230,24 +49223,24 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="101" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="101" t="s">
         <v>344</v>
-      </c>
-      <c r="B2" s="101" t="s">
-        <v>345</v>
       </c>
       <c r="C2" s="102">
         <f>NOW()</f>
-        <v>45168.31683</v>
+        <v>45170.20223</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F2" s="87"/>
       <c r="G2" s="104" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H2" s="87"/>
       <c r="I2" s="87"/>
@@ -50295,7 +50288,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="99" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" s="99" t="s">
         <v>1</v>
@@ -50338,13 +50331,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="66" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B2" s="66" t="s">
         <v>99</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D2" s="66"/>
       <c r="E2" s="66"/>
@@ -50369,13 +50362,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="66" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D3" s="66"/>
       <c r="E3" s="66"/>
@@ -50425,13 +50418,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="66" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" s="66" t="s">
         <v>349</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="C5" s="66" t="s">
         <v>350</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>351</v>
       </c>
       <c r="D5" s="66"/>
       <c r="E5" s="66"/>
@@ -50456,13 +50449,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="66" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B6" s="66" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" s="66" t="s">
         <v>352</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>353</v>
       </c>
       <c r="D6" s="66"/>
       <c r="E6" s="66"/>
@@ -50487,13 +50480,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="66" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B7" s="66" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" s="66" t="s">
         <v>354</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>355</v>
       </c>
       <c r="D7" s="66"/>
       <c r="E7" s="66"/>
@@ -50518,13 +50511,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="66" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B8" s="66" t="s">
+        <v>355</v>
+      </c>
+      <c r="C8" s="66" t="s">
         <v>356</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>357</v>
       </c>
       <c r="D8" s="66"/>
       <c r="E8" s="66"/>
@@ -50549,13 +50542,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="66" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B9" s="66" t="s">
+        <v>357</v>
+      </c>
+      <c r="C9" s="66" t="s">
         <v>358</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>359</v>
       </c>
       <c r="D9" s="66"/>
       <c r="E9" s="66"/>
@@ -50605,13 +50598,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="66" t="s">
+        <v>359</v>
+      </c>
+      <c r="B11" s="66" t="s">
         <v>360</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="C11" s="66" t="s">
         <v>361</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>362</v>
       </c>
       <c r="D11" s="66"/>
       <c r="E11" s="66"/>
@@ -50636,13 +50629,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B12" s="66" t="s">
+        <v>362</v>
+      </c>
+      <c r="C12" s="66" t="s">
         <v>363</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>364</v>
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="66"/>
@@ -50667,13 +50660,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B13" s="66" t="s">
+        <v>364</v>
+      </c>
+      <c r="C13" s="66" t="s">
         <v>365</v>
-      </c>
-      <c r="C13" s="66" t="s">
-        <v>366</v>
       </c>
       <c r="D13" s="66"/>
       <c r="E13" s="66"/>
@@ -50698,13 +50691,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B14" s="66" t="s">
+        <v>366</v>
+      </c>
+      <c r="C14" s="66" t="s">
         <v>367</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>368</v>
       </c>
       <c r="D14" s="66"/>
       <c r="E14" s="66"/>
@@ -50729,13 +50722,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B15" s="66" t="s">
+        <v>368</v>
+      </c>
+      <c r="C15" s="66" t="s">
         <v>369</v>
-      </c>
-      <c r="C15" s="66" t="s">
-        <v>370</v>
       </c>
       <c r="D15" s="66"/>
       <c r="E15" s="66"/>
@@ -50760,13 +50753,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B16" s="66" t="s">
+        <v>370</v>
+      </c>
+      <c r="C16" s="66" t="s">
         <v>371</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>372</v>
       </c>
       <c r="D16" s="66"/>
       <c r="E16" s="66"/>
@@ -50816,13 +50809,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="66" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B18" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="C18" s="66" t="s">
         <v>361</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>362</v>
       </c>
       <c r="D18" s="66"/>
       <c r="E18" s="66"/>
@@ -50847,13 +50840,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="66" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B19" s="66" t="s">
+        <v>362</v>
+      </c>
+      <c r="C19" s="66" t="s">
         <v>363</v>
-      </c>
-      <c r="C19" s="66" t="s">
-        <v>364</v>
       </c>
       <c r="D19" s="66"/>
       <c r="E19" s="66"/>
@@ -50878,13 +50871,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="66" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B20" s="66" t="s">
+        <v>364</v>
+      </c>
+      <c r="C20" s="66" t="s">
         <v>365</v>
-      </c>
-      <c r="C20" s="66" t="s">
-        <v>366</v>
       </c>
       <c r="D20" s="66"/>
       <c r="E20" s="66"/>
@@ -50909,13 +50902,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="66" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B21" s="66" t="s">
+        <v>366</v>
+      </c>
+      <c r="C21" s="66" t="s">
         <v>367</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>368</v>
       </c>
       <c r="D21" s="66"/>
       <c r="E21" s="66"/>
@@ -50940,13 +50933,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="66" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B22" s="66" t="s">
+        <v>370</v>
+      </c>
+      <c r="C22" s="66" t="s">
         <v>371</v>
-      </c>
-      <c r="C22" s="66" t="s">
-        <v>372</v>
       </c>
       <c r="D22" s="66"/>
       <c r="E22" s="66"/>
@@ -50971,13 +50964,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="66" t="s">
+        <v>372</v>
+      </c>
+      <c r="B23" s="66" t="s">
         <v>373</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="C23" s="66" t="s">
         <v>374</v>
-      </c>
-      <c r="C23" s="66" t="s">
-        <v>375</v>
       </c>
       <c r="D23" s="66"/>
       <c r="E23" s="66"/>
@@ -51027,13 +51020,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="66" t="s">
+        <v>375</v>
+      </c>
+      <c r="B25" s="66" t="s">
         <v>376</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="C25" s="66" t="s">
         <v>377</v>
-      </c>
-      <c r="C25" s="66" t="s">
-        <v>378</v>
       </c>
       <c r="D25" s="66"/>
       <c r="E25" s="66"/>
@@ -51058,13 +51051,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="66" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B26" s="66" t="s">
+        <v>378</v>
+      </c>
+      <c r="C26" s="66" t="s">
         <v>379</v>
-      </c>
-      <c r="C26" s="66" t="s">
-        <v>380</v>
       </c>
       <c r="D26" s="66"/>
       <c r="E26" s="66"/>
@@ -51089,13 +51082,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="66" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B27" s="66" t="s">
+        <v>380</v>
+      </c>
+      <c r="C27" s="66" t="s">
         <v>381</v>
-      </c>
-      <c r="C27" s="66" t="s">
-        <v>382</v>
       </c>
       <c r="D27" s="66"/>
       <c r="E27" s="66"/>
@@ -51120,13 +51113,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="66" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B28" s="66" t="s">
+        <v>382</v>
+      </c>
+      <c r="C28" s="66" t="s">
         <v>383</v>
-      </c>
-      <c r="C28" s="66" t="s">
-        <v>384</v>
       </c>
       <c r="D28" s="66"/>
       <c r="E28" s="66"/>
@@ -51151,13 +51144,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="66" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B29" s="66" t="s">
+        <v>384</v>
+      </c>
+      <c r="C29" s="66" t="s">
         <v>385</v>
-      </c>
-      <c r="C29" s="66" t="s">
-        <v>386</v>
       </c>
       <c r="D29" s="66"/>
       <c r="E29" s="66"/>
@@ -51207,13 +51200,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="66" t="s">
+        <v>386</v>
+      </c>
+      <c r="B31" s="66" t="s">
         <v>387</v>
       </c>
-      <c r="B31" s="66" t="s">
-        <v>388</v>
-      </c>
       <c r="C31" s="66" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D31" s="66"/>
       <c r="E31" s="66"/>
@@ -51238,13 +51231,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="66" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B32" s="66" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C32" s="66" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D32" s="66"/>
       <c r="E32" s="66"/>
@@ -51294,121 +51287,121 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="112" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B34" s="112" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" s="112" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="112" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B35" s="112" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" s="112" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="112" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B36" s="112" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" s="112" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="112" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B37" s="112" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" s="112" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="112" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B38" s="112" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" s="112" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="112" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B39" s="112" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" s="112" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="112" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B40" s="112" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" s="112" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="112" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B41" s="112" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" s="112" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="112" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B42" s="112" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" s="112" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="112" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B43" s="112" t="s">
+        <v>384</v>
+      </c>
+      <c r="C43" s="112" t="s">
         <v>385</v>
-      </c>
-      <c r="C43" s="112" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -51419,26 +51412,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="112" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B45" s="112" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" s="112" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="112" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B46" s="112" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" s="112" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -51449,13 +51442,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="103" t="s">
+        <v>402</v>
+      </c>
+      <c r="B48" s="103" t="s">
         <v>403</v>
       </c>
-      <c r="B48" s="103" t="s">
+      <c r="C48" s="103" t="s">
         <v>404</v>
-      </c>
-      <c r="C48" s="103" t="s">
-        <v>405</v>
       </c>
       <c r="D48" s="103"/>
       <c r="E48" s="103"/>
@@ -51480,13 +51473,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="103" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B49" s="103" t="s">
+        <v>405</v>
+      </c>
+      <c r="C49" s="103" t="s">
         <v>406</v>
-      </c>
-      <c r="C49" s="103" t="s">
-        <v>407</v>
       </c>
       <c r="D49" s="103"/>
       <c r="E49" s="103"/>
@@ -51512,226 +51505,226 @@
     <row r="50" ht="12.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="112" t="s">
+        <v>407</v>
+      </c>
+      <c r="B51" s="112" t="s">
         <v>408</v>
       </c>
-      <c r="B51" s="112" t="s">
+      <c r="C51" s="112" t="s">
         <v>409</v>
-      </c>
-      <c r="C51" s="112" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="112" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B52" s="112" t="s">
+        <v>410</v>
+      </c>
+      <c r="C52" s="112" t="s">
         <v>411</v>
-      </c>
-      <c r="C52" s="112" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="112" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B53" s="112" t="s">
+        <v>412</v>
+      </c>
+      <c r="C53" s="112" t="s">
         <v>413</v>
-      </c>
-      <c r="C53" s="112" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="112" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B54" s="112" t="s">
+        <v>414</v>
+      </c>
+      <c r="C54" s="112" t="s">
         <v>415</v>
-      </c>
-      <c r="C54" s="112" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="112" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B55" s="112" t="s">
+        <v>416</v>
+      </c>
+      <c r="C55" s="112" t="s">
         <v>417</v>
-      </c>
-      <c r="C55" s="112" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="112" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B56" s="112" t="s">
+        <v>384</v>
+      </c>
+      <c r="C56" s="112" t="s">
         <v>385</v>
-      </c>
-      <c r="C56" s="112" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="103" t="s">
+        <v>418</v>
+      </c>
+      <c r="B58" s="103" t="s">
         <v>419</v>
       </c>
-      <c r="B58" s="103" t="s">
+      <c r="C58" s="103" t="s">
         <v>420</v>
-      </c>
-      <c r="C58" s="103" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="103" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B59" s="103" t="s">
+        <v>421</v>
+      </c>
+      <c r="C59" s="103" t="s">
         <v>422</v>
-      </c>
-      <c r="C59" s="103" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="103" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B60" s="103" t="s">
+        <v>423</v>
+      </c>
+      <c r="C60" s="103" t="s">
         <v>424</v>
-      </c>
-      <c r="C60" s="103" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="103" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B61" s="103" t="s">
+        <v>384</v>
+      </c>
+      <c r="C61" s="103" t="s">
         <v>385</v>
-      </c>
-      <c r="C61" s="103" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="87" t="s">
+        <v>425</v>
+      </c>
+      <c r="B63" s="87" t="s">
         <v>426</v>
       </c>
-      <c r="B63" s="87" t="s">
+      <c r="C63" s="103" t="s">
         <v>427</v>
-      </c>
-      <c r="C63" s="103" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="87" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B64" s="87" t="s">
+        <v>428</v>
+      </c>
+      <c r="C64" s="103" t="s">
         <v>429</v>
-      </c>
-      <c r="C64" s="103" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="87" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B65" s="87" t="s">
+        <v>430</v>
+      </c>
+      <c r="C65" s="103" t="s">
         <v>431</v>
-      </c>
-      <c r="C65" s="103" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="87" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B66" s="87" t="s">
+        <v>432</v>
+      </c>
+      <c r="C66" s="103" t="s">
         <v>433</v>
-      </c>
-      <c r="C66" s="103" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="87" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B67" s="87" t="s">
+        <v>434</v>
+      </c>
+      <c r="C67" s="103" t="s">
         <v>435</v>
-      </c>
-      <c r="C67" s="103" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="112" t="s">
+        <v>436</v>
+      </c>
+      <c r="B69" s="112" t="s">
         <v>437</v>
       </c>
-      <c r="B69" s="112" t="s">
+      <c r="C69" s="112" t="s">
         <v>438</v>
-      </c>
-      <c r="C69" s="112" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="112" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B70" s="112" t="s">
+        <v>439</v>
+      </c>
+      <c r="C70" s="112" t="s">
         <v>440</v>
-      </c>
-      <c r="C70" s="112" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="112" t="s">
+        <v>441</v>
+      </c>
+      <c r="B72" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="B72" s="112" t="s">
-        <v>443</v>
-      </c>
       <c r="C72" s="113" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="112" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B73" s="112" t="s">
+        <v>443</v>
+      </c>
+      <c r="C73" s="112" t="s">
         <v>444</v>
-      </c>
-      <c r="C73" s="112" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="112" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B74" s="112" t="s">
+        <v>384</v>
+      </c>
+      <c r="C74" s="112" t="s">
         <v>385</v>
-      </c>
-      <c r="C74" s="112" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/cht_app/forms/app/padr.xlsx
+++ b/cht_app/forms/app/padr.xlsx
@@ -687,7 +687,7 @@
     <t>r_absent</t>
   </si>
   <si>
-    <t>&lt;b&gt;Revisit ${patient_display_name} in the next 5 days&lt;/b&gt;</t>
+    <t>&lt;b&gt;Revisit ${patient_display_name} within 5 days&lt;/b&gt;</t>
   </si>
   <si>
     <t>selected(${available},'No')</t>
@@ -49230,7 +49230,7 @@
       </c>
       <c r="C2" s="102">
         <f>NOW()</f>
-        <v>45170.20223</v>
+        <v>45175.1402</v>
       </c>
       <c r="D2" s="103" t="s">
         <v>345</v>
